--- a/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E7071-3699-384A-A9C6-05B3E86934D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9601A7D0-14DE-E946-A164-E3D7C819D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="645">
   <si>
     <t>CourseCode</t>
   </si>
@@ -2435,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4789,6 +4789,9 @@
       <c r="D60" t="s">
         <v>498</v>
       </c>
+      <c r="E60" t="s">
+        <v>427</v>
+      </c>
       <c r="F60">
         <v>6</v>
       </c>
@@ -7077,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB368C67-0469-40F7-B089-2478E9FFC0A5}">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68:L115"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9601A7D0-14DE-E946-A164-E3D7C819D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4BB4D-B114-6041-ABC8-8FCE99508B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="645">
   <si>
     <t>CourseCode</t>
   </si>
@@ -2435,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3874,6 +3874,9 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>427</v>
+      </c>
       <c r="F36">
         <v>8</v>
       </c>
@@ -3988,6 +3991,9 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>428</v>
+      </c>
       <c r="F39">
         <v>6</v>
       </c>
@@ -4064,6 +4070,9 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>427</v>
+      </c>
       <c r="F41">
         <v>8</v>
       </c>
@@ -4143,6 +4152,9 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>427</v>
+      </c>
       <c r="F43">
         <v>8</v>
       </c>
@@ -4181,6 +4193,9 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>427</v>
+      </c>
       <c r="F44">
         <v>8</v>
       </c>
@@ -4257,6 +4272,9 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>427</v>
+      </c>
       <c r="F46">
         <v>8</v>
       </c>
@@ -4333,6 +4351,9 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
+      <c r="E48" t="s">
+        <v>427</v>
+      </c>
       <c r="F48">
         <v>8</v>
       </c>
@@ -4409,6 +4430,9 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>427</v>
+      </c>
       <c r="F50">
         <v>8</v>
       </c>
@@ -4485,6 +4509,9 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>427</v>
+      </c>
       <c r="F52">
         <v>8</v>
       </c>
@@ -4523,6 +4550,9 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>428</v>
+      </c>
       <c r="F53">
         <v>6</v>
       </c>
@@ -5281,6 +5311,9 @@
       <c r="D72" t="s">
         <v>498</v>
       </c>
+      <c r="E72" t="s">
+        <v>427</v>
+      </c>
       <c r="F72">
         <v>6</v>
       </c>
@@ -5357,6 +5390,9 @@
       <c r="D74" t="s">
         <v>498</v>
       </c>
+      <c r="E74" t="s">
+        <v>427</v>
+      </c>
       <c r="F74">
         <v>6</v>
       </c>
@@ -5559,6 +5595,9 @@
       <c r="D79" t="s">
         <v>498</v>
       </c>
+      <c r="E79" t="s">
+        <v>427</v>
+      </c>
       <c r="F79">
         <v>6</v>
       </c>
@@ -5597,6 +5636,9 @@
       <c r="D80" t="s">
         <v>498</v>
       </c>
+      <c r="E80" t="s">
+        <v>427</v>
+      </c>
       <c r="F80">
         <v>6</v>
       </c>
@@ -5676,6 +5718,9 @@
       <c r="D82" t="s">
         <v>498</v>
       </c>
+      <c r="E82" t="s">
+        <v>427</v>
+      </c>
       <c r="F82">
         <v>6</v>
       </c>
@@ -5792,6 +5837,9 @@
       </c>
       <c r="D85" t="s">
         <v>498</v>
+      </c>
+      <c r="E85" t="s">
+        <v>427</v>
       </c>
       <c r="F85">
         <v>6</v>

--- a/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslaugsol/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4BB4D-B114-6041-ABC8-8FCE99508B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9874FF17-E371-A54B-97FA-6FDA61E62652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="646">
   <si>
     <t>CourseCode</t>
   </si>
@@ -2033,6 +2033,9 @@
   </si>
   <si>
     <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar og dæmatímar.  Aukatímar í hagnýtri forritun verða í boði.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>1V??</t>
   </si>
 </sst>
 </file>
@@ -2435,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2753,6 +2756,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>427</v>
+      </c>
       <c r="F8">
         <v>6</v>
       </c>
@@ -3119,6 +3125,9 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>427</v>
+      </c>
       <c r="F17">
         <v>6</v>
       </c>
@@ -3485,6 +3494,9 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>427</v>
+      </c>
       <c r="F26">
         <v>6</v>
       </c>
@@ -3523,6 +3535,9 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>427</v>
+      </c>
       <c r="F27">
         <v>6</v>
       </c>
@@ -3643,6 +3658,9 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>427</v>
+      </c>
       <c r="F30">
         <v>6</v>
       </c>
@@ -3681,6 +3699,9 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>427</v>
+      </c>
       <c r="F31">
         <v>6</v>
       </c>
@@ -3760,6 +3781,9 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>427</v>
+      </c>
       <c r="F33">
         <v>6</v>
       </c>
@@ -3798,6 +3822,9 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="E34" t="s">
+        <v>427</v>
+      </c>
       <c r="F34">
         <v>6</v>
       </c>
@@ -3836,6 +3863,9 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
+      <c r="E35" t="s">
+        <v>427</v>
+      </c>
       <c r="F35">
         <v>6</v>
       </c>
@@ -3915,6 +3945,9 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>427</v>
+      </c>
       <c r="F37">
         <v>6</v>
       </c>
@@ -3953,6 +3986,9 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>428</v>
+      </c>
       <c r="F38">
         <v>6</v>
       </c>
@@ -4032,6 +4068,9 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>427</v>
+      </c>
       <c r="F40">
         <v>8</v>
       </c>
@@ -4234,6 +4273,9 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>427</v>
+      </c>
       <c r="F45">
         <v>8</v>
       </c>
@@ -4313,6 +4355,9 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>427</v>
+      </c>
       <c r="F47">
         <v>8</v>
       </c>
@@ -4392,6 +4437,9 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>427</v>
+      </c>
       <c r="F49">
         <v>8</v>
       </c>
@@ -4471,6 +4519,9 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>427</v>
+      </c>
       <c r="F51">
         <v>8</v>
       </c>
@@ -4591,6 +4642,9 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>615</v>
+      </c>
       <c r="F54">
         <v>30</v>
       </c>
@@ -4667,6 +4721,9 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
+      <c r="E56" t="s">
+        <v>615</v>
+      </c>
       <c r="F56">
         <v>30</v>
       </c>
@@ -4705,6 +4762,9 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
+      <c r="E57" t="s">
+        <v>615</v>
+      </c>
       <c r="F57">
         <v>60</v>
       </c>
@@ -4743,6 +4803,9 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
+      <c r="E58" t="s">
+        <v>615</v>
+      </c>
       <c r="F58">
         <v>60</v>
       </c>
@@ -4781,6 +4844,9 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
+      <c r="E59" t="s">
+        <v>615</v>
+      </c>
       <c r="F59">
         <v>60</v>
       </c>
@@ -5352,6 +5418,9 @@
       <c r="D73" t="s">
         <v>498</v>
       </c>
+      <c r="E73" t="s">
+        <v>427</v>
+      </c>
       <c r="F73">
         <v>6</v>
       </c>
@@ -5759,6 +5828,9 @@
       <c r="D83" t="s">
         <v>498</v>
       </c>
+      <c r="E83" t="s">
+        <v>427</v>
+      </c>
       <c r="F83">
         <v>6</v>
       </c>
@@ -5920,6 +5992,9 @@
       <c r="D87" t="s">
         <v>498</v>
       </c>
+      <c r="E87" t="s">
+        <v>427</v>
+      </c>
       <c r="F87">
         <v>6</v>
       </c>
@@ -5958,6 +6033,9 @@
       <c r="D88" t="s">
         <v>498</v>
       </c>
+      <c r="E88" t="s">
+        <v>427</v>
+      </c>
       <c r="F88">
         <v>6</v>
       </c>
@@ -5996,6 +6074,9 @@
       <c r="D89" t="s">
         <v>498</v>
       </c>
+      <c r="E89" t="s">
+        <v>427</v>
+      </c>
       <c r="F89">
         <v>6</v>
       </c>
@@ -6034,6 +6115,9 @@
       <c r="D90" t="s">
         <v>498</v>
       </c>
+      <c r="E90" t="s">
+        <v>427</v>
+      </c>
       <c r="F90">
         <v>6</v>
       </c>
@@ -6072,6 +6156,9 @@
       <c r="D91" t="s">
         <v>498</v>
       </c>
+      <c r="E91" t="s">
+        <v>427</v>
+      </c>
       <c r="F91">
         <v>6</v>
       </c>
@@ -6110,6 +6197,9 @@
       <c r="D92" t="s">
         <v>498</v>
       </c>
+      <c r="E92" t="s">
+        <v>427</v>
+      </c>
       <c r="F92">
         <v>6</v>
       </c>
@@ -6148,6 +6238,9 @@
       <c r="D93" t="s">
         <v>498</v>
       </c>
+      <c r="E93" t="s">
+        <v>428</v>
+      </c>
       <c r="F93">
         <v>6</v>
       </c>
@@ -6309,6 +6402,9 @@
       <c r="D97" t="s">
         <v>498</v>
       </c>
+      <c r="E97" t="s">
+        <v>645</v>
+      </c>
       <c r="F97">
         <v>3</v>
       </c>
@@ -6347,6 +6443,9 @@
       <c r="D98" t="s">
         <v>498</v>
       </c>
+      <c r="E98" t="s">
+        <v>427</v>
+      </c>
       <c r="F98">
         <v>6</v>
       </c>
@@ -6385,6 +6484,9 @@
       <c r="D99" t="s">
         <v>498</v>
       </c>
+      <c r="E99" t="s">
+        <v>428</v>
+      </c>
       <c r="F99">
         <v>6</v>
       </c>
@@ -6546,6 +6648,9 @@
       <c r="D103" t="s">
         <v>498</v>
       </c>
+      <c r="E103" t="s">
+        <v>427</v>
+      </c>
       <c r="F103">
         <v>6</v>
       </c>
@@ -6584,6 +6689,9 @@
       <c r="D104" t="s">
         <v>498</v>
       </c>
+      <c r="E104" t="s">
+        <v>427</v>
+      </c>
       <c r="F104">
         <v>6</v>
       </c>
@@ -6663,6 +6771,9 @@
       <c r="D106" t="s">
         <v>498</v>
       </c>
+      <c r="E106" t="s">
+        <v>427</v>
+      </c>
       <c r="F106">
         <v>8</v>
       </c>
@@ -6783,6 +6894,9 @@
       <c r="D109" t="s">
         <v>498</v>
       </c>
+      <c r="E109" t="s">
+        <v>427</v>
+      </c>
       <c r="F109">
         <v>8</v>
       </c>
@@ -6821,6 +6935,9 @@
       <c r="D110" t="s">
         <v>498</v>
       </c>
+      <c r="E110" t="s">
+        <v>427</v>
+      </c>
       <c r="F110">
         <v>8</v>
       </c>
@@ -6900,6 +7017,9 @@
       <c r="D112" t="s">
         <v>498</v>
       </c>
+      <c r="E112" t="s">
+        <v>615</v>
+      </c>
       <c r="F112">
         <v>30</v>
       </c>
@@ -6938,6 +7058,9 @@
       <c r="D113" t="s">
         <v>498</v>
       </c>
+      <c r="E113" t="s">
+        <v>615</v>
+      </c>
       <c r="F113">
         <v>30</v>
       </c>
@@ -7014,6 +7137,9 @@
       <c r="D115" t="s">
         <v>498</v>
       </c>
+      <c r="E115" t="s">
+        <v>615</v>
+      </c>
       <c r="F115">
         <v>60</v>
       </c>
@@ -7052,6 +7178,9 @@
       <c r="D116" t="s">
         <v>498</v>
       </c>
+      <c r="E116" t="s">
+        <v>615</v>
+      </c>
       <c r="F116">
         <v>60</v>
       </c>
@@ -7089,6 +7218,9 @@
       </c>
       <c r="D117" t="s">
         <v>498</v>
+      </c>
+      <c r="E117" t="s">
+        <v>615</v>
       </c>
       <c r="F117">
         <v>60</v>

--- a/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslaugsol/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9874FF17-E371-A54B-97FA-6FDA61E62652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1294F9-3251-6B47-996B-8B913D15C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="31160" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
@@ -2438,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>

--- a/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
+++ b/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aslaugsol/Documents/GitHub/LIKX2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1294F9-3251-6B47-996B-8B913D15C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09AF2E-DDE8-A347-9553-DEE1AEA36BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="31160" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Námskeið" sheetId="1" r:id="rId1"/>
-    <sheet name="Undanfarar" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="596">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1076,9 +1075,6 @@
     <t>Thesis Defense</t>
   </si>
   <si>
-    <t>ParallelEnrollment</t>
-  </si>
-  <si>
     <t>T-201-STA2</t>
   </si>
   <si>
@@ -1260,66 +1256,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, heimadæmi og verkefni&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>T-208-FOR2</t>
-  </si>
-  <si>
-    <t>Verkfræðileg forritun í C++</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;T-208-FOR2 er grunnkúrs í forritun.&amp;nbsp; Kennt verður á C++ forritunarmálið.&amp;nbsp; Nemendur munu læra að skrifa einföld forrit og beita grunnaðferðum í forritun.&amp;nbsp; Efni sem verður farið yfir er eftirfarandi: Þróunarumhverfi fyrir C++, compiling &amp;amp; linking, þýdd forritunarmál vs. túlkuð, inntak og úttak, breytur og breytutegundir, tagbreytingar, flæði í forritunarmálum með lykkjum &amp;amp; skilyrðum, fylki, vektorar, strengir, föll, bendar, klasar og fleira.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eftir að hafa lokið þessum áfanga eiga nemendur að geta:&amp;nbsp;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Greint og útskýrt hegðun einfaldra forrita sem nota þær aðferðir sem kenndar eru í áfanganum.&lt;/li&gt;&lt;li&gt;Breytt og lagfært stutt forrit sem nota stöðluð skilyrði og lykkjur.&lt;/li&gt;&lt;li&gt;Hannað, útfært og prófað forrit sem nota eftirfarandi atriði: einfalda reikninga, einfalt inntak og úttak, venjuleg skilyrði og lykkjur, og skilgreiningar á föllum.&lt;/li&gt;&lt;li&gt;Valið hvaða grunneiningar í forritun (if, switch, for, while,…) henta fyrir einföld verkefni.&lt;/li&gt;&lt;li&gt;Beitt "structured decomposition" aðferðum til að brjóta forrit niður í smærri einingar. - Útskýrt hvernig föll og inntak þeirra hegðar sér við mismunandi aðstæður.&lt;/li&gt;&lt;li&gt;Rætt mikilvægi reiknirita við lausn vandamála.&lt;/li&gt;&lt;li&gt;Greint nauðsynlega eiginleika góðra forrita.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Hannað reiknirit til að leysa einföld vandamál.&lt;/li&gt;&lt;li&gt;Beitt sauðakóða til að greina einföld vandamál.&lt;/li&gt;&lt;li&gt;Notað forritunarmál til að útfæra, prófa og villuleita reiknirit til að leysa einföld vandamál.&lt;/li&gt;&lt;li&gt;Útskýrt aðferðir sem henta vel við villuleit í forritum.&lt;/li&gt;&lt;li&gt;Útskýrt grunntög og notkun innbyggðra gagnataga.&amp;nbsp;&lt;/li&gt;&lt;li&gt;Skrifað forrit sem nota fylki, strengi, strauma og klasa.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Kennt í 12 vikur - 4 fyrirlestrar og 2 dæmatímar á viku, auk vikulegra viðtalstíma.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Lokapróf: 50-60%&lt;br&gt;Miðannarpróf:&amp;nbsp;20%&lt;br&gt;Skilaverkefni: 20%&lt;br&gt;Dæmatimaverkefni: 10% (gilda aðeins til hækkunar)&lt;br&gt;&lt;br&gt;ATH: Það þarf að standast lokapróf til að skilaverkefni, miðannarpróf og dæmatímaverkefni gildi.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>T-111-PROG</t>
-  </si>
-  <si>
-    <t>Forritun</t>
-  </si>
-  <si>
-    <t>Tölvunarfræðideild</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Þetta er inngangsnámskeið í forritun með Python. Fjallað er um grunneiningar í forritun, t.d. breytur, tög, stýriskipanir og föll. Jafnframt er lögð áhersla á innbyggðar gagnagrindur eins og strengi, lista og uppflettitöflur. Hugtakið klasi er kynnt og hvernig það styður við hjúpun og upplýsingarhuld í hlutbundinni forritun. Nemendur læra að nota bæði samþætt þróunarumhverfi og skipanaham til að þróa og keyra forrit.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Nemandinn geti:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Greint og útskýrt virkni einfaldra forrita sem nota eftirfarandi grunneiningar: breytur, tög, segðir og gildisveitingar, einfalt inntak/úttak, stýriskipanir, söfn og föll.&lt;/li&gt;&lt;li&gt;&lt;p&gt;Greint og útskýrt og virkni einfaldra forrita sem nota klasa.&lt;/p&gt;&lt;/li&gt;&lt;li&gt;&lt;p&gt;Lýst hvað felst í hugtökunum hjúpun, upplýsingahuld og hugrænt gagnatag og hvernig klasar styðja við ofangreind hugtök.&lt;/p&gt;&lt;/li&gt;&lt;li&gt;&lt;p&gt;Skilið muninn á yfirlýsingu og útfærslu.&lt;/p&gt;&lt;/li&gt;&lt;li&gt;&lt;p&gt;Rætt mikilvægi algríms við lausn vandamála og hvernig vandamál geti verið leyst með mismunandi algrímum&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Nemandinn geti:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Notað skipanalínu og samþætt þróunarumhverfi (IDE) til að þróa og keyra forrit.&lt;/li&gt;&lt;li&gt;Hannað, útfært, prófað, aflúsað og breytt forriti sem notar eftirfarandi grunneiningar í forritun: breytur, tög, segðir og gildisveitingar, einfalt inntak/úttak, skilyrðissetningar, lykkjur, söfn og föll.&lt;/li&gt;&lt;li&gt;&lt;p&gt;Valið viðeigandiskilyrðissetningar og lykkjur fyrir tiltekið verkefni.&lt;/p&gt;&lt;/li&gt;&lt;li&gt;Beitt ofansækinni hönnun til að brjóta forrit upp í smærri einingar.&lt;/li&gt;&lt;li&gt;&lt;p&gt;Hannað, útfært, prófað, aflúsað og breytt forriti sem notar klasa.&lt;/p&gt;&lt;/li&gt;&lt;li&gt;&lt;p&gt;Geti búið til algrím til að leysa einfalt vandamál.&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Nemandinn geti:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Hannað og þróað forrit fyrir vandamál sem er lýst á almennan hátt.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>T-107-TOLH</t>
-  </si>
-  <si>
-    <t>Tölvuhögun</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Markmiðið í þessu námskeiði er að miðla þekkingu um hvernig tölvur virka, með sérstaka áherslu á það sem skiptir máli fyrir forritara. Farið verður í hvernig örgjörvar virka, hvernig þeir nýta sér tvíundarkerfi til útreikninga og hvernig tölur, sem og önnur gögn, eru táknuð í tvíundarkerfi (e. binary). Nemendur kynnast því að lesa x86_64 smalamál. Einnig læra nemendur hvernig forrit hlaðast í og nota minni (gisti, flýtiminni, vinnsluminni o.s.frv.). Nemendur læra að nota algengar skipanir í skipanalínu.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;ul&gt;&lt;li&gt;Geti lýst uppbyggingu tölvubúnaðar með tilliti til grunneininga, t.a.m. örgjörva, inntaks/úttaks (I/O), minnismeðhöndlunar og stýrikerfis.&lt;/li&gt;&lt;li&gt;Geti útskýrt hvað forrit eru og hvernig þau keyra á vélbúnaðinum.&lt;/li&gt;&lt;li&gt;Geti útskýrt forrit sem skrifuð eru í x86_64 smalamáli.&lt;/li&gt;&lt;li&gt;Geti lýst ítarlega hvernig gögn, þar með talið heiltölur, eru sett fram, vistuð og sótt í tölvukerfum.&lt;/li&gt;&lt;li&gt;Öðlist grundvallar þekkingu á UNIX / Linux stýrikerfinu.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;ul&gt;&lt;li&gt;Geti skrifað og útskýrt einföld forrit á x86_64 smalamáli.&lt;/li&gt;&lt;li&gt;Geti baksmalað (e. disassemble), rakið (e. trace) og framkvæmt einfalda aflúsun á forritum sem skrifuð eru í x86_64 smalamáli.&lt;/li&gt;&lt;li&gt;Geti skrifað og aflúsað einföld forrit í C forritunarmálinu.&lt;/li&gt;&lt;li&gt;Geti notað grunntól í skipanalínu (e. command line) fyrir einfaldar aðgerðir í Linux eða öðrum UNIX-stýrikerfum.&lt;/li&gt;&lt;li&gt;Geti útfært einfaldar stærðfræðiaðgerðir með notkun tvíundaaðgerða (e. binary operators).&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>T-303-RASE</t>
-  </si>
-  <si>
-    <t>Rafsegulfræði og hálfleiðarar</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt; Grunnnám, framhaldsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs: &lt;/strong&gt;Skyldunámskeið í raforkuverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Eðlisfræði II (T-202-EDL2 eða RT EÐL 2003).&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Ulaby F.T. et al, &lt;em&gt;Fundamentals of Applied Electromagnetics&lt;/em&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Við lok námskeiðs er ætlast til að nemendur séu kunnugir grundvallar hugmyndum í rafsegulfræði og rafsegulbylgjum, ásamt grunneiginleika hálfleiðara og nýtingu þeirra í nútímatækni. Einnig er ætlast til að nemendur hafi tileinkað sér færni í að leysa einföld vandamál tengd segulfræði og hálfleiðurum. Þeir eiga líka að hafa góðan grunn fyrir sérhæfðari námskeið í t.d. rafmagnsvéla, rafölum, háspennulínum og öðrum rafeindatækjum eða búnaði.&lt;/p&gt;&lt;p&gt;Við lok námskeiðs mun nemandi hafa þekkingu á:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;meira um rafstöðufræði og segulstöðufræði en í Eðlisfræði 2: ímyndaraðferð, rafsvarar og segulefni&lt;/li&gt;&lt;li&gt;tímaháð rafsegulsvið og jöfnur Maxwells&lt;/li&gt;&lt;li&gt;rafsegulbylgjur: útbreiðsla, flutningur, endurkast, skautun&lt;/li&gt;&lt;li&gt;rafsegulbylgjur í efni með tapi&lt;/li&gt;&lt;li&gt;háspennulínur&lt;/li&gt;&lt;li&gt;grunnatriði loftneta&lt;/li&gt;&lt;li&gt;grunnatriði hálfleiðara&lt;/li&gt;&lt;li&gt;inngangur að leysir&lt;/li&gt;&lt;li&gt;sólarsellur&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Við lok námskeiðsins mun nemandi hafa leikni í að: &lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;reikna rafsvið og segulsvið með vigurreikningum í þrívíðu rúmi og tvinntölum&lt;/li&gt;&lt;li&gt;reikna spanspennu eða spanstrauma í ýmsum tilfellum&lt;/li&gt;&lt;li&gt;reikna endurkast, gegnskin og deyfingarstuðull&lt;/li&gt;&lt;li&gt;reikna samviðnám rafmagnslína og í efni með tapi&lt;/li&gt;&lt;li&gt;geta framkvæmt ýmsar mælingar í tilraunastofu tengdu rafsegulfræði&lt;/li&gt;&lt;li&gt;geta notað tölvuhugbúnað til þess að greina og vinna mæld gögn.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Við lok námskeiðsins mun nemandi hafa hæfni til að:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;skilja þrívíða eiginleika rafsegulsviðs.&lt;/li&gt;&lt;li&gt;skilja samband milli tímaháðra rafsviða og segulsviða&lt;/li&gt;&lt;li&gt;hafa yfirsýn yfir hin ýmsu form spanlögmála&lt;/li&gt;&lt;li&gt;geta framkvæmt greiningu á rafsegulsviði í meðfram háspennulínur&lt;/li&gt;&lt;li&gt;geta framkvæmt greiningu á rafsegulsviði sem loftnet gefur frá sér&lt;/li&gt;&lt;li&gt;notkun sólarsella sem orkugjafa í hagnýtum tilvikum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar,&amp;nbsp;dæmatímar, verklegar æfingar og heimaverkefni.&lt;/p&gt;</t>
   </si>
   <si>
     <t>SemesterType</t>
@@ -1930,109 +1866,6 @@
   </si>
   <si>
     <t>15V</t>
-  </si>
-  <si>
-    <t>T-501-REGL</t>
-  </si>
-  <si>
-    <t>T-866-MODE</t>
-  </si>
-  <si>
-    <t>Raforkukerfi og reiknilíkön</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  2. First cycle, intermediate.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Mandatory course for mechatronics engineering, biomedical engineering, electric power engineering, energy engineering, mechanical engineering.&lt;br&gt;&lt;strong&gt;Mandatory prerequisites: &lt;/strong&gt;Calculus I (T-101-STA1), Physics I (T-102-EDL1), Physcis II (T-202-EDL2).&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Basic concepts of charge, current, power and energy.&lt;/li&gt;&lt;li&gt;Circuit elements, including different types of sources.&lt;/li&gt;&lt;li&gt;Basic laws, including Ohm’s and Kirchhoff’s laws.&lt;/li&gt;&lt;li&gt;Series and parallel connections, and Delta and Wye transformations.&lt;/li&gt;&lt;li&gt;Circuit analysis methods; node voltage and mesh current methods.&lt;/li&gt;&lt;li&gt;Circuit theorems; superposition, source transformation, Thevenin’s and Norton’s theorems and maximum power transfer.&lt;/li&gt;&lt;li&gt;Operational amplifiers (Op-Amp) and its basic circuits.&lt;/li&gt;&lt;li&gt;Inductors and capacitors and series and parallel combinations.&lt;/li&gt;&lt;li&gt;First order RL and RC circuits, and the natural, forced and steady-state responses.&lt;/li&gt;&lt;li&gt;Second order series and parallel RLC circuits.&lt;/li&gt;&lt;li&gt;Concepts of phasors and impedances for AC sinusoidal analysis&lt;/li&gt;&lt;li&gt;Circuits methods and theorems for AC sinusoidal steady-state and AC power analysis&lt;/li&gt;&lt;li&gt;Frequency response; resonance conditions, transfer functions and frequency filters&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Textbook&lt;/strong&gt;: Fundamentals of Electric Circuits, C. K. Alexander and M. N. O. Sadiku, Mc Graw Hill 6th edition, 2016 (Chapters: 01-11 and 14).&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Lecture Slides&lt;/strong&gt;: Mainly from the textbook.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Homework Assignments and Experiments&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;The course supervisor is Mohamed Abdelfattah.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Level of course:&lt;/strong&gt;                  3. First cycle, advanced / 4. Second cycle, introductory.&lt;br&gt;&lt;strong&gt;Type of course:                   &lt;/strong&gt;Core mechatronics engineering, electric power engineering.  Recommended elective for biomedical engineering and mechanical engineering.&lt;br&gt;&lt;strong&gt;Prerequisites (mandatory):&lt;/strong&gt; Calculus I (T-101-STA1), Calculus II (T-201-STA2), Mathematics III (T-301-MATH), Linear Algebra (T-211-LINA), Linear Dynamic Systems. T-401-LISY. Programming in Matlab and/or Python.&lt;/p&gt;&lt;p&gt;This is an introductory course to feedback control systems. The course topics are:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Models of dynamical systems based on ordinary differential equations&lt;/li&gt;&lt;li&gt;Stability analysis&lt;/li&gt;&lt;li&gt;Linear systems&lt;/li&gt;&lt;li&gt;Design of control systems in state-space&lt;/li&gt;&lt;li&gt;PID control&lt;/li&gt;&lt;li&gt;Frequency domain analysis&lt;/li&gt;&lt;li&gt;Frequency domain design methods&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Reading material: &lt;/strong&gt;K. J. Åström &amp; R. M. Murray, &lt;em&gt;Feedback Systems: An Introduction for Scientists and Engineers&lt;/em&gt;, Princeton University Press, 2008 (www.cds.caltech.edu/~murray/amwiki/Main_Page)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fyrir allar námsbrautir í verkfræði&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Engir undanfarar.&lt;/p&gt;&lt;p&gt;Farið er í undirstöðuatriði línulegrar algebru og notkun á þeim. Tekinn er fyrir fylkjareikningur og aðferðir við lausn á línulegum jöfnuhneppum. Fjallað er um línulegar varpanir, ákveður, eigingildi og eiginvigra. Myndræn beiting fylkjareiknings er skoðuð. Fjallað er um vigrarúmfræði, þar á meðal jöfnur fyrir plön. Teknar eru fyrir aðferðir til að leiða út grunn fyrir ýmis hlutrúm Rn.  Nemendur fá að kynnast almennum vektorrúmum og eiginleika þeirra.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                 &lt;/strong&gt;Lay, Lay and McDonald, &lt;em&gt;Linear Algebra and its Applications.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið.&lt;strong&gt; &lt;/strong&gt;  &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið vélaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Eðlisfræði I (T-102-EDL1), Stærðfræði II (T-201-STA2), Varmafræði (T-507-VARM).&lt;/p&gt;&lt;p&gt;Efnistök námskeiðsins eru meðal annars eðliseiginleikar vökva, vökvastöðufræði, varðveislulögmál með tegur- og diffurframsetningu, Bernoulli jafna, mættisstreymi, einföld flæði seigra vökva með Navier-Stokes jöfnum, víddargreining, pípustreymi, jaðarlög og þjappanleg flæði.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                              &lt;/strong&gt;F.M White, &lt;em&gt;Fluid Mechanics.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                  3. Grunnnám, sérhæft námskeið / 4. Framhaldsnám, inngangsnámskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði og rekstrarverkfræði á 3. ári. Skyldunámskeið heilbrigðisverkfræði og vélaverkfræði á 4. ári (þ.e. á fyrsta ári meistaranáms).&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar:&lt;/strong&gt; Stærðfræði I (T-101-STA1), Stærðfræði II (T-201-STA2),  Línuleg Algebra (T-211-LINA), Forritun fyrir verkfræðinema (T-201-FOR1), Stærðfræði III (T-301-MATH).&lt;/p&gt;&lt;p&gt;Undirstöðuatriði tölulegrar greiningar og notkun á þeim. Nálganir og skekkjumat. Tölulegar aðferðir til að leysa jöfnur og finna lægsta gildi falls. Tölulegar lausnir á línulegum og ólínulegum jöfnuhneppum. Margliðubrúun. Línuleg aðhvarfsgreining fyrir gagnasöfn. Töluleg diffrun og heildun. Tölulegar lausnir á upphafs- og jaðargildisverkefni fyrir venjulegar diffurjöfnur og diffurjöfnuhneppi. Undirstöðuatriði bútaaðferðar við lausn á diffurjöfnum. Áhersla er lögð á hagnýta forritun til að leysa stærðfræðileg verkefni sem koma upp í verkfræðinni. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni:                                 &lt;/strong&gt;Timothy Sauer, &lt;em&gt;Numerical Analysis&lt;/em&gt;. Fyrirlestrarnótur frá kennara&lt;em&gt;.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt;                   1. Grunnnám, grunnnámskeið.    &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:            &lt;/strong&gt;Skyldunámskeið heilbrigðisverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Engir. Efnafræði (T-204-EFNA) er ráðlagður undanfari.&lt;/p&gt;&lt;p&gt;Fyrsti hluti: Inngangur að frumulíffræði, lífefnafræði frumna og prótein.&lt;/p&gt;&lt;p&gt;Annar hluti: Sameindaerfðafræði. Genamengið og litningar, DNA eftirmyndun, DNA viðgerðir og DNA       endurröðun. Umritun á DNA yfir í RNA. Þýðing á RNA yfir í prótein. Grunnatriði genastjórnunar.&lt;/p&gt;&lt;p&gt;Þriðji hluti: Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Flutningur í     blöðrum, Orkubúskapur frumunar, Boðskipti frumunar og Frumugrindin.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lesefni: &lt;/strong&gt;Alberts et al, &lt;em&gt;Essential Cell Biology.4th edition&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:&lt;/strong&gt; 3. Grunnnám, sérhæft námskeið.&lt;br&gt;&lt;strong&gt;Tegund námskeiðs: &lt;/strong&gt;Skyldunámskeið hátækniverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Forritun í C++ (T-208-FOR2) eða Python (T-111-PROG eða T-201-FOR1). &lt;strong&gt;Aðrir ráðlagðir undanfarar:&lt;/strong&gt; Greining rása (T-306-RAS1); Stöðu- og burðarþolsfræði (T-106-BURD); Tölvuhögun (T-107-TOLH, hægt að taka samhliða). &lt;/p&gt;&lt;p&gt;This is an introduction to Mechatronics, the technique of interfacing software, electronics, and mechanical components. We will be utilizing the Raspberry Pi single-board linux microcontroller and Arduino as our focus. Students will have pay a fee for their personal lab kit which includes some shared parts for team-based labs. The chosen textbook is required for the course and critical to completing the Lab assignments. &lt;br&gt;We will begin with an introduction to linux and software engineering. This includes C++, python, and Subversion (for collaboration).  We will then shift to electronics design, implementation, and testing. We will cover both analog and digital electronics with a focus on interfacing to sensors and actuators. Students will be designing and building PCB boards using Altium to integrate the electronics being developed.  Students will choose a final mechatronics team project to be presented at the end of the semester. This project should involve manufacturing mechanical elements and interfacing them with the microcontrollers to demonstrate their mastery of the subject. Students will be spending a good deal of time in the Electronics Lab in V207 and Machine Shop building projects. This means that each student should have gone through safety training in the labs as a prerequisite. If you are an exchange student, contact the Teaching Assistants about setting up a safety training session so you can use the facilities. &lt;br&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Textbook/ Lesefni:&lt;/strong&gt; &lt;em&gt;Exploring Raspberry Pi: Interfacing to the Real World with Embedded Linux&lt;/em&gt; by Derek Molloy, published by John Wiley and Sons in 2016.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Stig námskeiðs:                   &lt;/strong&gt;2. Grunnnám, framhaldsnámskeið. &lt;br&gt;&lt;strong&gt;Tegund námskeiðs:&lt;/strong&gt;            Skyldunámskeið fjármálaverkfræði.&lt;br&gt;&lt;strong&gt;Nauðsynlegir undanfarar: &lt;/strong&gt;Fjármálaverkfræði – inngangur (T-101-INNF), Stærðfræði I &amp; II (T-101-STA1 og T-201- STA2), Línuleg algebra (T-211-LINA).  Aðrir ráðlagðir undanfarar: Góð kunnátta í excel, Matlab og/eða Python.&lt;/p&gt;&lt;p&gt;Viðfangsefni námskeiðsins er verðmat fjárfestinga og ákvarðanafræði og gera nemendur færa um að skilja og beita helstu hugtökum á þessum sviðum.&lt;br&gt;Efnistök námskeiðsins eru: greiðsluflæði, tímagildi peninga, vaxta- og ávöxtunarútreikningar, meðallíftími, vaxtaferlar, framvirkir vextir, samval verðbréfa, framfall eignasafna, CAPM og árangursmat.  Einnig verða vaxtaskiptasamningar kynntir og álagspróf.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;strong&gt;Lesefni:    &lt;/strong&gt;David Luenberger, &lt;em&gt;Investment Science.&lt;/em&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;b&gt;&lt;span style="font-size: 7.5pt; font-family: Verdana, sans-serif;"&gt;General course objectives:&lt;/span&gt;&lt;/b&gt;&lt;br /&gt;_x000D_
-&lt;span style="font-size: 7.5pt; line-height: 107%; font-family: Verdana, sans-serif;"&gt;To obtain knowledge about how various power system components may be appropriately modelled such they may be used for analysis of large-scale systems. This includes static models of transmission lines, transformers and loads, and dynamic models of the synchronous machine.&amp;nbsp; Furthermore, focus is on applying techniques to analyze power system in steady state and in dynamic state. Students have to write Matlab code to carry out load flow analysis and time domain simulations of large power systems.&amp;nbsp; &amp;nbsp;&lt;br /&gt;_x000D_
-&lt;br /&gt;_x000D_
-&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;almenna lausn á diffurjöfnu og sérlausn á upphafsgildisverkefni (U.G.V.),&lt;/li&gt;&lt;li&gt;nokkrar algengar tegundir af fyrsta stigs diffurjöfnum,&lt;/li&gt;&lt;li&gt;hliðraðar og óhliðraðar annars stigs diffurjöfnur,&lt;/li&gt;&lt;li&gt;grunnlausnir á annars stigs diffurjöfnum og Wronski ákveður,&lt;/li&gt;&lt;li&gt;Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;Fourierraðir og Fourier-ummyndun,&lt;/li&gt;&lt;li&gt;fyrsta stigs línuleg diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;nokkrar hlutafleiðujöfnur, t.d. bylgjujöfnuna og varmaleiðnijöfnuna.&lt;/li&gt;&lt;li&gt;einfaldar ítranir til að leysa diffurjöfnu tölulega.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leyst nokkrar tegundir af fyrsta stigs diffurjöfnum, t.d. með því að aðskilja breytistærðir, finna mætti eða nota breytuskipti,&lt;/li&gt;&lt;li&gt;leyst hliðraðar annars stigs diffurjöfnur, t.d. með aðferð breytilegra stuðla eða aðferð óákvarðaðra fasta,&lt;/li&gt;&lt;li&gt;leyst upphafsgildisverkefni með Heaviside falli eða Deltafalli Diracs með Laplace-ummyndun,&lt;/li&gt;&lt;li&gt;fundið veldaraðalausnir,&lt;/li&gt;&lt;li&gt;fundið Fourierröð falls og kósínus og sínusröð falls,&lt;/li&gt;&lt;li&gt;breytt n-ta stigs diffurjöfnu í 1. stigs diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;leyst diffurjöfnuhneppi,&lt;/li&gt;&lt;li&gt;geti leyst jaðargildisverkefni fyrir annars stigs diffurjöfnur með fastastuðlum,&lt;/li&gt;&lt;li&gt;geti leyst einfaldar hlutafleiðujöfnur með aðskilnaði breytistærða.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;átti sig á hlutverki diffurjafna við framsetningu verkefna í verkfræði,&lt;/li&gt;&lt;li&gt;geti leyst verkefni í verkfræði sem innihalda diffurjöfnur.&lt;/li&gt;&lt;li&gt;notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu.&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Námsmat er byggt á skriflegu lokaprófi skiladæmum, hlutaprófum og kynningu á hagnýtri diffurjöfnu. Standast þarf skriflega lokaprófið.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Assessment methods:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;_x000D_
-&lt;ul&gt;_x000D_
-    &lt;li&gt;Quizzes (short tests)&lt;/li&gt;_x000D_
-    &lt;li&gt;Midterm exam&lt;/li&gt;_x000D_
-    &lt;li&gt;Assignments; homework problems and lab exercises.&lt;/li&gt;_x000D_
-    &lt;li&gt;Final exam; in order to pass this course, you need 50% or higher on the Final-Exam grade and 50% or higher on the total grade.&lt;/li&gt;_x000D_
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;This course is designed to give you a solid foundation in the theory and concepts of dynamic systems and how models are used for determining system behaviour. The design of feed-back control systems is particularly well suited to achieving this objective, as it calls for an in-depth understanding of system stability and how this is affected by the design of control signals.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Having completed this course, you should be able to&lt;/p&gt;&lt;ul&gt;&lt;li&gt;explain structure and characteristics of automatic control systems&lt;/li&gt;&lt;li&gt;develop mathematical models of common control systems using differential equations&lt;/li&gt;&lt;li&gt;calibrate these models using system response measurements&lt;/li&gt;&lt;li&gt;determine system stability&lt;/li&gt;&lt;li&gt;apply control to satisfy operational requirements and achieve satisfactory performance&lt;/li&gt;&lt;li&gt;use common methods and software (MATLAB) for the design of control systems&lt;/li&gt;&lt;li&gt;actively participate in the design of a control system&lt;/li&gt;&lt;li&gt;undertake further studies in the analysis and design of complex control systems&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Kennt í 12 vikur - 6 kennslustundir á viku auk verklegra æfinga.</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Stefnt er að því að nemendur þekki:&lt;br&gt;•    undirstöðuatriði fylkjareiknings,&lt;br&gt;•    lausnir á línulegum jöfnuhneppum,&lt;br&gt;•    aðferðir til að meta hvort vigrar eru línulega óháðir,&lt;br&gt;•    grunnatriði varðandi línulegar varpanir,&lt;br&gt;•    vigraaðgerðir, meðal annars innfeldi og krossfeldi,&lt;br&gt;•    fylkjaaðgerðir og andhverfur fylkja,&lt;br&gt;•    þverlægni, ofanvörp og hornrétta grunni,&lt;br&gt;•    hlutrúm Rn og víddir og grunnir þeirra,&lt;br&gt;•    grunnatriði varðandi almenn vektorrúm.&lt;/p&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;•    rökstutt niðurstöður í línulegri algebru með því að beita stærðfræðilegri röksemdarfærslu,&lt;br&gt;•    notað fylkjareikning til að leysa ýmis verkefni í rúmfræði,&lt;br&gt;•    reiknað ákveðu og andhverfu fylkis,&lt;br&gt;•    reiknað eigingildi og eiginvigra fylkis, og hornalínugert það þegar hægt er,&lt;br&gt;•    reiknað grunn fyrir ýmis hlutrúm Rn.&lt;/p&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Stefnt er að því að nemendur geti:&lt;br&gt;• beitt fylkjareikningi til að leysa verkefni sem upp koma í tölvunarfræði og verkfræði, &lt;br&gt;&lt;/p&gt;&lt;p&gt;• beitt stærðfræðilegri röksemdarfærslu til að sanna einfaldar reglur og setningar. &lt;br&gt;&lt;/p&gt;&lt;p&gt;• notað hugbúnað (t.d. Matlab) við lausn verkefna í námsefninu. &lt;br&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar, dæmatímar og verklegar æfingar.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Markmið með þessu námskeiði er að gefa 1. árs verkfræðinemum grunnþekkingu í samsetningu og starfsemi heilkjörnunga og helstu þáttum í sameindalíffræði heilkjörnunga. Einnig að kynna þeim fyrir almennum þáttum í stofnfrumulíffræði, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Farið verður í grunnþætti lífefnafræði, grunnþætti sameindaerfðafræði, grunnþætti sameindalíffræði og grunnþætti frumulíffræði. Farið í uppbyggingu og starfsemi próteina. Farið verður yfir uppbyggingu og pökkun erfðaefnisins. Farið verður yfir þá þætti sem stýra viðhaldi, viðgerð og endurmyndun á erfðaefninu. Farið verður í gegnum hvernig erfðaefnið er umritað og þýtt yfir í prótein. Farið verður í grunnbyggingu og efnasamsetningu frumuhimnunar. Farið verður yfir helstu þætti sem stjórna flæði efna í gegnum frumuhimnu. Farið verður yfir helstu frumulíffæri og hvernig próteinum er pakkað og flutt til innan frumunar. Farið verður í orkubúskap heilkjörnunga. Farið verður yfir samskipti innan frumna og milli frumna. Farið verður yfir frumugrindina og hvernig frumur hreyfa sig. Fjallað verður um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Verklegar æfingar verða tvisvar sinnum á önninni&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Námskeiðinu er skipt í fjóra hluta: I) inngang að frumulíffræð, lífefnafræði og prótein,  II) Sameindaerfðafræði III) Frumuhimnan, flutningur sameinda yfir frumuhimnu, Innra skipulag frumunar, Boðskipti frumunar og Frumugrindin. IV) Stofnfrumur, vefajverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Að loknu námskeiðinu á nemandinn að hafa skilning á efnafræði frumna, uppbyggingu og starfsemi próteina, uppbyggingu erfðaefnisins, umritun og þýðingu erfðaefnis yfir í prótein , byggingu og virkni frumuhimnunnar, frumulíffæri, innanfrumuboðleiðir, samskipti frumna og hafa grunþekkingu um stofnfrumur, vefjaverkfræði og taugaverkfræði.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Námsmat&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mæting í verklegar æfingar og skil á skýrslum&lt;/li&gt;&lt;li&gt;Áfangapróf&lt;/li&gt;&lt;li&gt;Skriflegt lokapróf&lt;/li&gt;&lt;li&gt;Ekki farið fram á lágmarkseinkunn úr verklegum æfingum eða áfangaprófum til að öðlast próftökurétt í lokaprófi. Standast þarf lokapróf.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;At the end of the class, students should have good knowledge of:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Data encoding formats and binary arithmetic&lt;/li&gt;&lt;li&gt;Different electrical, mechanical, and software components&lt;/li&gt;&lt;li&gt;Commonly used sensors and actuators in smart devices&lt;/li&gt;&lt;li&gt;Concepts of modularity, independence, information, and robustnes&lt;br&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;At the end of the class, students should know how to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Operate oscilloscopes, multimeters, soldering irons, and benchtop power-supplies&lt;/li&gt;&lt;li&gt;Create schematics, layout PCB boards, and solder components to build working devices&lt;/li&gt;&lt;li&gt;Program a microcontroller to read sensors and control actuators.  For example: An Arduino with C++ or a BeagleBone with python&lt;/li&gt;&lt;li&gt;Apply the Axiomatic Design methodology to design modular robust systems.&lt;/li&gt;&lt;li&gt;Understand digital and analog communication interfaces such as wireless networking, ethernet, and Internet of Things&lt;/li&gt;&lt;li&gt;Understand actuator and electronics specification sheets&lt;/li&gt;&lt;li&gt;Measure the accuracy, repeatibility, and resolution of a sensor&lt;/li&gt;&lt;li&gt;Record communication and data into a research notebook properly for international-quality research&lt;/li&gt;&lt;li&gt;Write lab reports and conference papers using LaTeX and Overleaf&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;At the end of the class, students will be able to:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Develop an application using a linux single-board-computer&lt;/li&gt;&lt;li&gt;Design, build, and test advanced circuits with active elements&lt;/li&gt;&lt;li&gt;Choose the best components for a design&lt;/li&gt;&lt;li&gt;Improve upon existing mechatronic devices&lt;/li&gt;&lt;li&gt;Build actuator or control systems with feedback&lt;/li&gt;&lt;li&gt;Debug electronic, software, and mechanical issues efficiently&lt;/li&gt;&lt;li&gt;Write a conference-quality paper for a final report of a project&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;There is no final exam.    Assignments will consist of a mixture of group lab assignments and individual competency tests.  Students must be able to effectively communicate their ideas through written and oral methods.  Students will each have a design notebook which must be used on a regular basis on topics relating to the class, team efforts, and analysis.  The notebook will graded periodically.   &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;Students are required to keep at least a 67% attendance grade in order to complete the course.  Students are also expected to assist in cleanup of the mechatronics lab at the end of the course in order to receive a grade. &lt;br&gt; &lt;br&gt;Proper citation is a requirement in this class, without exemptions.  All material from an outside source (ideas, text, pictures) must include a proper citation.  IEEE is the preferred format.  Failure to include citations will result in a 0 for the assignment and considered plagarism which will be reported to the academic office.  Improperly cited material will be assessed a lesser penalty depending upon the assignment.  You are explicitly given permission to use the RU logo on your reports and presentations without citation because you are enrolled at our university. &lt;br&gt; &lt;br&gt;Late work will be penalized according to the degree of lateness: 10%  per day that work is late to a maximum of 5 points (for 5+ days late).  Assigments may only be submitted up to one week late.  Software with code that was checked in to SVN at the due date/time can be checked off at the next session at full credit.  If any changes are made after that time, the late work penalty will be applied.  For LaTeX documents and presentations, the  CANVAS submission time will be used to assess lateness.  Always check the assignment for the appropriate submission procedure. &lt;br&gt; &lt;br&gt;Whenever possible, the evaluation sheet for a given assignment will be provided before the start of the assignment.  Reports and papers may be resubmitted up to a week after they are returned for regrading.  These grades will be averaged for the new grade(40%/60%). &lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Communication and rigor are critical to proper mechatronic design.  Students will be shown how to use a research notebook and expected to keep it up to date as part of their grade.    Proper citation of included internet and written material must be performed.  Each subject will consist of lectures and related labs or projects.  Significant student participation and interaction in lecture discussions is expected.   &lt;br&gt; &lt;br&gt;Many assignments are to be done in teams.  Collaboration on individual assignments is expected, but each student must do their own writeup (no copying).  Document assignments will use LaTeX templates that will be provided. &lt;br&gt; &lt;br&gt;Students are expected to make use of the Machine shop and Electronics lab, taking appropriate International safety precautions where applicable.  The instructor will give guidelines on these procedures and assist in execution.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Að námskeiðinu loknu hafi nemandi undirstöðuskilning á helstu tegundum verðbréfa og helstu aðferðum sem beita má við verð- og áhættumat þeirra. Þá hafi nemandi góðan skilning á aðferðum til þess að bera saman mismunandi fjárfestingarkosti og geti beitt til þess bestunaraðferðum. Loks hafi nemandi góðan skilning á samspili ávöxtunar og áhættu í verðbréfasöfnum og geti beitt stærðfræðilegum aðferðum til þess að skilgreina eignasafn með tilteknum jaðarskilyrðum.  Ofangreint meginmarkmið má brjóta niður í eftirfarandi undirviðmið:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Skilja fræðilega undirstöðu og aðferðafræði við verðmat á helstu verðbréfum (þó ekki afleiðum) og fjárfestingarkostum.&lt;/li&gt;&lt;li&gt;Velja besta fjárfestingarkost með beitingu heiltölubestunar.&lt;/li&gt;&lt;li&gt;Skilja hugtök um ávöxtunarkröfu, vaxtarferla, framvirka vexti og samspil þessara þátta.&lt;/li&gt;&lt;li&gt;Skilja hugtök um meðaltíma greiðsluflæðis.&lt;/li&gt;&lt;li&gt;Þekkja og beita líkani Markowitz við skilgreiningu verðbréfasafna.&lt;/li&gt;&lt;li&gt;Kunna skil á aðferð Lagrange til þess að finna verðbréfasafn með tilteknum jaðarskilyrðum.&lt;/li&gt;&lt;li&gt;Kunna skil á samspili ávöxtunarkröfu og áhættu og geta teiknað og útskýrt framfallið sem bestu niðurstöðu.&lt;/li&gt;&lt;li&gt;Þekkja og beita CAPM líkaninu við verðmat fjárfestingarkosta.&lt;/li&gt;&lt;li&gt;Hafa grunnþekkingu á helstu tegundum afleiða.&lt;/li&gt;&lt;li&gt;Þekkja aðferðafræði við álagsprófanir í fjármálafyrirtækjum.&lt;/li&gt;&lt;li&gt;Framkvæma umfangsmikið verkefni þar sem ofangreindum atriðum er beitt við lausn hagnýtra viðfangsefna.  &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Verdana, sans-serif; font-size: 7.5pt;"&gt;A student who has met the objectives of the course will be able to:&lt;/span&gt;&lt;/p&gt;_x000D_
-&lt;ul type="disc"&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; models of electrical transmission lines      and components to &lt;b&gt;analyze&lt;/b&gt; their      transmission characteristics and to study large complex power grids&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Apply&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the mathematical model of the synchronous      machine to &lt;b&gt;analyze&lt;/b&gt; it under      stationary and transient conditions&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the structure of a program that carriers      out static analysis of complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Describe&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; the steps involved and information needed      to study the dynamic response in complex electric power systems&lt;/span&gt;&lt;/li&gt;_x000D_
-    &lt;li class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt;Analyze&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:7.5pt;font-family:" new=""&gt; given power system conditions by applying      load flow and time domain simulations.&amp;nbsp;&lt;/span&gt;&lt;/li&gt;_x000D_
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;span style="font-family: Arial, Helvetica, sans-serif;"&gt;Lectures and practical sessions.&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="bologna"&gt;&lt;div class="knowledge"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa þekkingu á:&lt;/p&gt;&lt;ul&gt;&lt;li&gt; grunnatriðum verkfræðinnar er lúta að varmafræði&lt;/li&gt;&lt;li&gt; orku- og massavarðveislu í verkfræðilegum kerfum&lt;/li&gt;&lt;li&gt;orkuferlum við nýtingu helstu orkugjafa&lt;/li&gt;&lt;li&gt;eðli og leiðum til varmaflutnings um efni&lt;/li&gt;&lt;li&gt;hagnýtri forritun við úrlausn á verkfræðilegum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="skills"&gt;&lt;p&gt;Í lok þessa námskeiðs eiga nemendur að hafa færni í að:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;leysa einföld verkfræðileg verkefni m.t.t. massa- og orkujafnvægis og varmaflutnings&lt;/li&gt;&lt;li&gt;setja upp og leysa útreikninga á grunnatriðum orkuframleiðslu m.a. með hagnýtri forritun&lt;/li&gt;&lt;li&gt;setja fram niðurstöður á útreikningum á skilvirkan hátt&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;div class="competence"&gt;&lt;p&gt;Í lok þessa námskeiðs hafa nemendur:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;öðlast hæfni til að beita verkfræðilegum aðferðum við úrlausn á einföldum orkutengdum verkefnum&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kennt í 12 vikur. Fyrirlestrar og dæmatímar.  Aukatímar í hagnýtri forritun verða í boði.&lt;/p&gt;</t>
   </si>
   <si>
     <t>1V??</t>
@@ -2115,27 +1948,6 @@
     <tableColumn id="17" xr3:uid="{5F062688-35CD-4E61-A5DA-1F43E73434CE}" name="Prerequisite"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B49BBD15-9559-4972-82FA-D083101482EB}" name="Table13" displayName="Table13" ref="A1:L115" totalsRowShown="0">
-  <autoFilter ref="A1:L115" xr:uid="{0BCC3B43-D6C6-4797-9BE9-3F1B8FA3A0A0}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C37B6319-0044-475C-AB90-97F329BA360C}" name="CourseCode"/>
-    <tableColumn id="2" xr3:uid="{BF58368D-D9E7-4FD7-9C91-39E8D8F9B4EF}" name="Prerequisite"/>
-    <tableColumn id="3" xr3:uid="{D3932031-3034-4520-85F4-405ED181D630}" name="ParallelEnrollment"/>
-    <tableColumn id="4" xr3:uid="{69326B95-3507-4F71-AABA-E2CDFF6AF033}" name="Name"/>
-    <tableColumn id="5" xr3:uid="{34C866FB-BBC9-4951-ABB3-685FF41D41EA}" name="DepartmentName"/>
-    <tableColumn id="7" xr3:uid="{EEE27230-EB64-44DD-AB68-2EB0AC45085C}" name="ECTS"/>
-    <tableColumn id="8" xr3:uid="{9B0F1DDB-BD99-4E7A-A6D3-0DE65A41459D}" name="Description"/>
-    <tableColumn id="9" xr3:uid="{68354D2B-C4E6-44CB-9B7E-367B5AAB00FE}" name="Outcome"/>
-    <tableColumn id="10" xr3:uid="{14DD67C2-1582-4B7A-8CEC-B0C2B757B0D5}" name="Structure"/>
-    <tableColumn id="11" xr3:uid="{AD841310-7FB7-4A83-98E5-93BD3F26306F}" name="Assessment"/>
-    <tableColumn id="12" xr3:uid="{01F53AD3-F12A-4FB8-91DA-945B1B5472C8}" name="Methods"/>
-    <tableColumn id="13" xr3:uid="{D6AC97AB-9B04-4BDB-9A2C-4ED065172676}" name="TeachingLanguage"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2470,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -2511,7 +2323,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2552,7 +2364,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -2593,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -2634,7 +2446,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -2675,7 +2487,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2716,7 +2528,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2757,7 +2569,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -2798,7 +2610,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -2839,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -2880,7 +2692,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2921,7 +2733,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2962,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3003,7 +2815,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -3044,7 +2856,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -3085,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -3126,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -3167,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -3208,7 +3020,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -3249,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -3290,7 +3102,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -3331,7 +3143,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -3372,7 +3184,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -3413,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -3454,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -3495,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -3536,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -3577,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -3618,7 +3430,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -3659,7 +3471,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -3700,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -3741,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -3782,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -3823,7 +3635,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -3864,7 +3676,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -3905,7 +3717,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -3946,7 +3758,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -3987,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -4028,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -4069,7 +3881,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -4110,7 +3922,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -4151,7 +3963,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -4192,7 +4004,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -4233,7 +4045,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -4274,7 +4086,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -4315,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -4356,7 +4168,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -4397,7 +4209,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -4438,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -4479,7 +4291,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F50">
         <v>8</v>
@@ -4520,7 +4332,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -4561,7 +4373,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -4602,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -4643,7 +4455,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -4722,7 +4534,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -4763,7 +4575,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F57">
         <v>60</v>
@@ -4804,7 +4616,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F58">
         <v>60</v>
@@ -4845,7 +4657,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F59">
         <v>60</v>
@@ -4874,37 +4686,37 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" t="s">
         <v>387</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>477</v>
+      </c>
+      <c r="E60" t="s">
+        <v>406</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
         <v>388</v>
       </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>498</v>
-      </c>
-      <c r="E60" t="s">
-        <v>427</v>
-      </c>
-      <c r="F60">
-        <v>6</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>389</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
         <v>390</v>
       </c>
-      <c r="I60" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>391</v>
-      </c>
-      <c r="K60" t="s">
-        <v>392</v>
       </c>
       <c r="L60" t="s">
         <v>21</v>
@@ -4924,10 +4736,10 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E61" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -4965,16 +4777,16 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E62" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="H62" t="s">
         <v>39</v>
@@ -4997,37 +4809,37 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>357</v>
+      </c>
+      <c r="B63" t="s">
         <v>358</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>477</v>
+      </c>
+      <c r="E63" t="s">
+        <v>406</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
         <v>359</v>
       </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>498</v>
-      </c>
-      <c r="E63" t="s">
-        <v>427</v>
-      </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>360</v>
-      </c>
-      <c r="H63" t="s">
-        <v>361</v>
       </c>
       <c r="I63" t="s">
         <v>118</v>
       </c>
       <c r="J63" t="s">
+        <v>361</v>
+      </c>
+      <c r="K63" t="s">
         <v>362</v>
-      </c>
-      <c r="K63" t="s">
-        <v>363</v>
       </c>
       <c r="L63" t="s">
         <v>21</v>
@@ -5038,37 +4850,37 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E64" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="H64" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="I64" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="J64" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="K64" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="L64" t="s">
         <v>21</v>
@@ -5079,28 +4891,28 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" t="s">
         <v>383</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>477</v>
+      </c>
+      <c r="E65" t="s">
+        <v>406</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
         <v>384</v>
       </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>498</v>
-      </c>
-      <c r="E65" t="s">
-        <v>427</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>385</v>
-      </c>
-      <c r="H65" t="s">
-        <v>386</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -5120,37 +4932,37 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66" t="s">
         <v>345</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>477</v>
+      </c>
+      <c r="E66" t="s">
+        <v>406</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
         <v>346</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>498</v>
-      </c>
-      <c r="E66" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>347</v>
-      </c>
-      <c r="H66" t="s">
-        <v>348</v>
       </c>
       <c r="I66" t="s">
         <v>75</v>
       </c>
       <c r="J66" t="s">
+        <v>348</v>
+      </c>
+      <c r="K66" t="s">
         <v>349</v>
-      </c>
-      <c r="K66" t="s">
-        <v>350</v>
       </c>
       <c r="L66" t="s">
         <v>21</v>
@@ -5161,37 +4973,37 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" t="s">
         <v>351</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>477</v>
+      </c>
+      <c r="E67" t="s">
+        <v>406</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
         <v>352</v>
       </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>498</v>
-      </c>
-      <c r="E67" t="s">
-        <v>427</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>353</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>354</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>355</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>356</v>
-      </c>
-      <c r="K67" t="s">
-        <v>357</v>
       </c>
       <c r="L67" t="s">
         <v>21</v>
@@ -5202,37 +5014,37 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>363</v>
+      </c>
+      <c r="B68" t="s">
         <v>364</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>477</v>
+      </c>
+      <c r="E68" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
         <v>365</v>
       </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>498</v>
-      </c>
-      <c r="E68" t="s">
-        <v>427</v>
-      </c>
-      <c r="F68">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>366</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>367</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>368</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>369</v>
-      </c>
-      <c r="K68" t="s">
-        <v>370</v>
       </c>
       <c r="L68" t="s">
         <v>21</v>
@@ -5243,37 +5055,37 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E69" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F69">
         <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="H69" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="I69" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="J69" t="s">
         <v>158</v>
       </c>
       <c r="K69" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="L69" t="s">
         <v>21</v>
@@ -5284,37 +5096,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B70" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E70" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="H70" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="I70" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="J70" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="K70" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s">
         <v>21</v>
@@ -5325,28 +5137,28 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E71" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F71">
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="H71" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
@@ -5355,7 +5167,7 @@
         <v>112</v>
       </c>
       <c r="K71" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s">
         <v>184</v>
@@ -5366,34 +5178,34 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B72" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
+        <v>477</v>
+      </c>
+      <c r="E72" t="s">
+        <v>406</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>496</v>
+      </c>
+      <c r="H72" t="s">
+        <v>497</v>
+      </c>
+      <c r="I72" t="s">
         <v>498</v>
       </c>
-      <c r="E72" t="s">
-        <v>427</v>
-      </c>
-      <c r="F72">
-        <v>6</v>
-      </c>
-      <c r="G72" t="s">
-        <v>517</v>
-      </c>
-      <c r="H72" t="s">
-        <v>518</v>
-      </c>
-      <c r="I72" t="s">
-        <v>519</v>
-      </c>
       <c r="J72" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="K72" t="s">
         <v>223</v>
@@ -5407,28 +5219,28 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B73" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F73">
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="H73" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -5437,7 +5249,7 @@
         <v>158</v>
       </c>
       <c r="K73" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s">
         <v>21</v>
@@ -5448,28 +5260,28 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B74" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E74" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F74">
         <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="H74" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="I74" t="s">
         <v>26</v>
@@ -5478,7 +5290,7 @@
         <v>158</v>
       </c>
       <c r="K74" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="L74" t="s">
         <v>21</v>
@@ -5489,37 +5301,37 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" t="s">
         <v>377</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>477</v>
+      </c>
+      <c r="E75" t="s">
+        <v>406</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
         <v>378</v>
       </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>498</v>
-      </c>
-      <c r="E75" t="s">
-        <v>427</v>
-      </c>
-      <c r="F75">
-        <v>6</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>379</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s">
         <v>380</v>
       </c>
-      <c r="I75" t="s">
-        <v>26</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>381</v>
-      </c>
-      <c r="K75" t="s">
-        <v>382</v>
       </c>
       <c r="L75" t="s">
         <v>21</v>
@@ -5530,37 +5342,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E76" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F76">
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="H76" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="I76" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="J76" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="K76" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="L76" t="s">
         <v>85</v>
@@ -5571,37 +5383,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E77" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F77">
         <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="H77" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="I77" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="J77" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="K77" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="L77" t="s">
         <v>21</v>
@@ -5612,37 +5424,37 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>370</v>
+      </c>
+      <c r="B78" t="s">
         <v>371</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>477</v>
+      </c>
+      <c r="E78" t="s">
+        <v>406</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
         <v>372</v>
       </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>498</v>
-      </c>
-      <c r="E78" t="s">
-        <v>427</v>
-      </c>
-      <c r="F78">
-        <v>6</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>373</v>
-      </c>
-      <c r="H78" t="s">
-        <v>374</v>
       </c>
       <c r="I78" t="s">
         <v>90</v>
       </c>
       <c r="J78" t="s">
+        <v>374</v>
+      </c>
+      <c r="K78" t="s">
         <v>375</v>
-      </c>
-      <c r="K78" t="s">
-        <v>376</v>
       </c>
       <c r="L78" t="s">
         <v>21</v>
@@ -5653,37 +5465,37 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="B79" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E79" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F79">
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="H79" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="I79" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="J79" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="K79" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="L79" t="s">
         <v>85</v>
@@ -5694,37 +5506,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" t="s">
         <v>399</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>477</v>
+      </c>
+      <c r="E80" t="s">
+        <v>406</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
         <v>400</v>
       </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" t="s">
-        <v>498</v>
-      </c>
-      <c r="E80" t="s">
-        <v>427</v>
-      </c>
-      <c r="F80">
-        <v>6</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>401</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>402</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>403</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>404</v>
-      </c>
-      <c r="K80" t="s">
-        <v>405</v>
       </c>
       <c r="L80" t="s">
         <v>21</v>
@@ -5735,37 +5547,37 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="B81" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E81" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="H81" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="I81" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="J81" t="s">
         <v>158</v>
       </c>
       <c r="K81" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="L81" t="s">
         <v>21</v>
@@ -5776,37 +5588,37 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B82" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E82" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F82">
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="H82" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="I82" t="s">
         <v>321</v>
       </c>
       <c r="J82" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="K82" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="L82" t="s">
         <v>85</v>
@@ -5817,28 +5629,28 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="B83" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E83" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F83">
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="H83" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="I83" t="s">
         <v>321</v>
@@ -5858,37 +5670,37 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>392</v>
+      </c>
+      <c r="B84" t="s">
         <v>393</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>477</v>
+      </c>
+      <c r="E84" t="s">
+        <v>406</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
         <v>394</v>
       </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>498</v>
-      </c>
-      <c r="E84" t="s">
-        <v>427</v>
-      </c>
-      <c r="F84">
-        <v>6</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>395</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" t="s">
         <v>396</v>
       </c>
-      <c r="I84" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>397</v>
-      </c>
-      <c r="K84" t="s">
-        <v>398</v>
       </c>
       <c r="L84" t="s">
         <v>21</v>
@@ -5899,37 +5711,37 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="B85" t="s">
+        <v>456</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
         <v>477</v>
       </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s">
-        <v>498</v>
-      </c>
       <c r="E85" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F85">
         <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="H85" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="I85" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="J85" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="K85" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="L85" t="s">
         <v>21</v>
@@ -5940,28 +5752,28 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="B86" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E86" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F86">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H86" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="I86" t="s">
         <v>26</v>
@@ -5970,7 +5782,7 @@
         <v>177</v>
       </c>
       <c r="K86" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="L86" t="s">
         <v>21</v>
@@ -5990,16 +5802,16 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E87" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F87">
         <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="H87" t="s">
         <v>227</v>
@@ -6008,7 +5820,7 @@
         <v>228</v>
       </c>
       <c r="J87" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="K87" t="s">
         <v>230</v>
@@ -6031,10 +5843,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E88" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -6072,10 +5884,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E89" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -6104,19 +5916,19 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B90" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E90" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -6145,37 +5957,37 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="B91" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E91" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F91">
         <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="H91" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="I91" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="J91" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="K91" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
@@ -6186,37 +5998,37 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="B92" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E92" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F92">
         <v>6</v>
       </c>
       <c r="G92" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="H92" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="I92" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="J92" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="K92" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="L92" t="s">
         <v>21</v>
@@ -6227,25 +6039,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="B93" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E93" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F93">
         <v>6</v>
       </c>
       <c r="G93" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="H93" t="s">
         <v>26</v>
@@ -6254,10 +6066,10 @@
         <v>26</v>
       </c>
       <c r="J93" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="K93" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="L93" t="s">
         <v>85</v>
@@ -6268,28 +6080,28 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="B94" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E94" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F94">
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="H94" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="I94" t="s">
         <v>321</v>
@@ -6298,7 +6110,7 @@
         <v>112</v>
       </c>
       <c r="K94" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="L94" t="s">
         <v>85</v>
@@ -6309,31 +6121,31 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="B95" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E95" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F95">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="H95" t="s">
         <v>177</v>
       </c>
       <c r="I95" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="J95" t="s">
         <v>177</v>
@@ -6350,28 +6162,28 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B96" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E96" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F96">
         <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="H96" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="I96" t="s">
         <v>321</v>
@@ -6391,25 +6203,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="B97" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E97" t="s">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="F97">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="H97" t="s">
         <v>26</v>
@@ -6418,10 +6230,10 @@
         <v>26</v>
       </c>
       <c r="J97" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="K97" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="L97" t="s">
         <v>85</v>
@@ -6441,10 +6253,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E98" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -6453,7 +6265,7 @@
         <v>249</v>
       </c>
       <c r="H98" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="I98" t="s">
         <v>26</v>
@@ -6482,10 +6294,10 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E99" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -6494,7 +6306,7 @@
         <v>249</v>
       </c>
       <c r="H99" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="I99" t="s">
         <v>26</v>
@@ -6514,28 +6326,28 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B100" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E100" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F100">
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="H100" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="I100" t="s">
         <v>321</v>
@@ -6555,28 +6367,28 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B101" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E101" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F101">
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="H101" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="I101" t="s">
         <v>321</v>
@@ -6596,19 +6408,19 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="B102" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E102" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F102">
         <v>6</v>
@@ -6637,19 +6449,19 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="B103" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E103" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -6678,19 +6490,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B104" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E104" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F104">
         <v>6</v>
@@ -6719,37 +6531,37 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B105" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F105">
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="H105" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="I105" t="s">
         <v>26</v>
       </c>
       <c r="J105" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="K105" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="L105" t="s">
         <v>85</v>
@@ -6760,37 +6572,37 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B106" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E106" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F106">
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="H106" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="I106" t="s">
         <v>26</v>
       </c>
       <c r="J106" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="K106" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="L106" t="s">
         <v>85</v>
@@ -6801,37 +6613,37 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B107" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F107">
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="H107" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="I107" t="s">
         <v>26</v>
       </c>
       <c r="J107" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="K107" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="L107" t="s">
         <v>85</v>
@@ -6842,37 +6654,37 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B108" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E108" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F108">
         <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="H108" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="I108" t="s">
         <v>321</v>
       </c>
       <c r="J108" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="K108" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="L108" t="s">
         <v>85</v>
@@ -6883,37 +6695,37 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="B109" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E109" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F109">
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="H109" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="I109" t="s">
         <v>26</v>
       </c>
       <c r="J109" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="K109" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="L109" t="s">
         <v>85</v>
@@ -6924,37 +6736,37 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B110" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E110" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F110">
         <v>8</v>
       </c>
       <c r="G110" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="H110" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="I110" t="s">
         <v>321</v>
       </c>
       <c r="J110" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="K110" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="L110" t="s">
         <v>85</v>
@@ -6965,25 +6777,25 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="B111" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E111" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F111">
         <v>8</v>
       </c>
       <c r="G111" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="H111" t="s">
         <v>26</v>
@@ -7015,10 +6827,10 @@
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E112" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F112">
         <v>30</v>
@@ -7056,10 +6868,10 @@
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E113" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F113">
         <v>30</v>
@@ -7097,7 +6909,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="F114">
         <v>30</v>
@@ -7135,10 +6947,10 @@
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E115" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F115">
         <v>60</v>
@@ -7176,10 +6988,10 @@
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E116" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F116">
         <v>60</v>
@@ -7217,10 +7029,10 @@
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E117" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="F117">
         <v>60</v>
@@ -7254,4404 +7066,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB368C67-0469-40F7-B089-2478E9FFC0A5}">
-  <dimension ref="A1:L115"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="112.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H3" t="s">
-        <v>348</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K3" t="s">
-        <v>350</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H4" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K4" t="s">
-        <v>350</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H7" t="s">
-        <v>348</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I8" t="s">
-        <v>355</v>
-      </c>
-      <c r="J8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K8" t="s">
-        <v>357</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>360</v>
-      </c>
-      <c r="H9" t="s">
-        <v>361</v>
-      </c>
-      <c r="I9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" t="s">
-        <v>362</v>
-      </c>
-      <c r="K9" t="s">
-        <v>363</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H10" t="s">
-        <v>348</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>349</v>
-      </c>
-      <c r="K10" t="s">
-        <v>350</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>366</v>
-      </c>
-      <c r="H11" t="s">
-        <v>367</v>
-      </c>
-      <c r="I11" t="s">
-        <v>368</v>
-      </c>
-      <c r="J11" t="s">
-        <v>369</v>
-      </c>
-      <c r="K11" t="s">
-        <v>370</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" t="s">
-        <v>164</v>
-      </c>
-      <c r="J19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>353</v>
-      </c>
-      <c r="H20" t="s">
-        <v>354</v>
-      </c>
-      <c r="I20" t="s">
-        <v>355</v>
-      </c>
-      <c r="J20" t="s">
-        <v>356</v>
-      </c>
-      <c r="K20" t="s">
-        <v>357</v>
-      </c>
-      <c r="L20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>372</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>373</v>
-      </c>
-      <c r="H22" t="s">
-        <v>374</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" t="s">
-        <v>375</v>
-      </c>
-      <c r="K22" t="s">
-        <v>376</v>
-      </c>
-      <c r="L22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-      <c r="G27" t="s">
-        <v>379</v>
-      </c>
-      <c r="H27" t="s">
-        <v>380</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" t="s">
-        <v>381</v>
-      </c>
-      <c r="K27" t="s">
-        <v>382</v>
-      </c>
-      <c r="L27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>384</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>385</v>
-      </c>
-      <c r="H30" t="s">
-        <v>386</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K30" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K31" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>384</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>385</v>
-      </c>
-      <c r="H32" t="s">
-        <v>386</v>
-      </c>
-      <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="s">
-        <v>158</v>
-      </c>
-      <c r="K32" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" t="s">
-        <v>234</v>
-      </c>
-      <c r="I33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" t="s">
-        <v>235</v>
-      </c>
-      <c r="K33" t="s">
-        <v>236</v>
-      </c>
-      <c r="L33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s">
-        <v>345</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>346</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>347</v>
-      </c>
-      <c r="H35" t="s">
-        <v>348</v>
-      </c>
-      <c r="I35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" t="s">
-        <v>349</v>
-      </c>
-      <c r="K35" t="s">
-        <v>350</v>
-      </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>346</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
-      <c r="G37" t="s">
-        <v>347</v>
-      </c>
-      <c r="H37" t="s">
-        <v>348</v>
-      </c>
-      <c r="I37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" t="s">
-        <v>349</v>
-      </c>
-      <c r="K37" t="s">
-        <v>350</v>
-      </c>
-      <c r="L37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" t="s">
-        <v>68</v>
-      </c>
-      <c r="J38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>387</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>388</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-      <c r="G39" t="s">
-        <v>389</v>
-      </c>
-      <c r="H39" t="s">
-        <v>390</v>
-      </c>
-      <c r="I39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" t="s">
-        <v>391</v>
-      </c>
-      <c r="K39" t="s">
-        <v>392</v>
-      </c>
-      <c r="L39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>260</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-      <c r="G41" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>260</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42">
-        <v>6</v>
-      </c>
-      <c r="G42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" t="s">
-        <v>118</v>
-      </c>
-      <c r="J42" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42" t="s">
-        <v>120</v>
-      </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" t="s">
-        <v>393</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>394</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>395</v>
-      </c>
-      <c r="H43" t="s">
-        <v>396</v>
-      </c>
-      <c r="I43" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" t="s">
-        <v>397</v>
-      </c>
-      <c r="K43" t="s">
-        <v>398</v>
-      </c>
-      <c r="L43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>280</v>
-      </c>
-      <c r="B44" t="s">
-        <v>399</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>400</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-      <c r="G44" t="s">
-        <v>401</v>
-      </c>
-      <c r="H44" t="s">
-        <v>402</v>
-      </c>
-      <c r="I44" t="s">
-        <v>403</v>
-      </c>
-      <c r="J44" t="s">
-        <v>404</v>
-      </c>
-      <c r="K44" t="s">
-        <v>405</v>
-      </c>
-      <c r="L44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>280</v>
-      </c>
-      <c r="B45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" t="s">
-        <v>171</v>
-      </c>
-      <c r="J45" t="s">
-        <v>172</v>
-      </c>
-      <c r="K45" t="s">
-        <v>126</v>
-      </c>
-      <c r="L45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" t="s">
-        <v>42</v>
-      </c>
-      <c r="L46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47" t="s">
-        <v>99</v>
-      </c>
-      <c r="L47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48">
-        <v>6</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" t="s">
-        <v>67</v>
-      </c>
-      <c r="I48" t="s">
-        <v>68</v>
-      </c>
-      <c r="J48" t="s">
-        <v>69</v>
-      </c>
-      <c r="K48" t="s">
-        <v>70</v>
-      </c>
-      <c r="L48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
-      <c r="G49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J49" t="s">
-        <v>83</v>
-      </c>
-      <c r="K49" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" t="s">
-        <v>406</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>407</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-      <c r="G50" t="s">
-        <v>408</v>
-      </c>
-      <c r="H50" t="s">
-        <v>409</v>
-      </c>
-      <c r="I50" t="s">
-        <v>410</v>
-      </c>
-      <c r="J50" t="s">
-        <v>411</v>
-      </c>
-      <c r="K50" t="s">
-        <v>120</v>
-      </c>
-      <c r="L50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" t="s">
-        <v>412</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>413</v>
-      </c>
-      <c r="E51" t="s">
-        <v>414</v>
-      </c>
-      <c r="F51">
-        <v>6</v>
-      </c>
-      <c r="G51" t="s">
-        <v>415</v>
-      </c>
-      <c r="H51" t="s">
-        <v>416</v>
-      </c>
-      <c r="I51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" t="s">
-        <v>177</v>
-      </c>
-      <c r="K51" t="s">
-        <v>177</v>
-      </c>
-      <c r="L51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H52" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" t="s">
-        <v>182</v>
-      </c>
-      <c r="K52" t="s">
-        <v>183</v>
-      </c>
-      <c r="L52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" t="s">
-        <v>358</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>359</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53">
-        <v>6</v>
-      </c>
-      <c r="G53" t="s">
-        <v>360</v>
-      </c>
-      <c r="H53" t="s">
-        <v>361</v>
-      </c>
-      <c r="I53" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" t="s">
-        <v>362</v>
-      </c>
-      <c r="K53" t="s">
-        <v>363</v>
-      </c>
-      <c r="L53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" t="s">
-        <v>417</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>418</v>
-      </c>
-      <c r="E54" t="s">
-        <v>414</v>
-      </c>
-      <c r="F54">
-        <v>6</v>
-      </c>
-      <c r="G54" t="s">
-        <v>419</v>
-      </c>
-      <c r="H54" t="s">
-        <v>420</v>
-      </c>
-      <c r="I54" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" t="s">
-        <v>177</v>
-      </c>
-      <c r="K54" t="s">
-        <v>177</v>
-      </c>
-      <c r="L54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" t="s">
-        <v>96</v>
-      </c>
-      <c r="I55" t="s">
-        <v>97</v>
-      </c>
-      <c r="J55" t="s">
-        <v>98</v>
-      </c>
-      <c r="K55" t="s">
-        <v>99</v>
-      </c>
-      <c r="L55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>345</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>346</v>
-      </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c r="G56" t="s">
-        <v>347</v>
-      </c>
-      <c r="H56" t="s">
-        <v>348</v>
-      </c>
-      <c r="I56" t="s">
-        <v>75</v>
-      </c>
-      <c r="J56" t="s">
-        <v>349</v>
-      </c>
-      <c r="K56" t="s">
-        <v>350</v>
-      </c>
-      <c r="L56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" t="s">
-        <v>68</v>
-      </c>
-      <c r="J57" t="s">
-        <v>69</v>
-      </c>
-      <c r="K57" t="s">
-        <v>70</v>
-      </c>
-      <c r="L57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
-      <c r="G58" t="s">
-        <v>95</v>
-      </c>
-      <c r="H58" t="s">
-        <v>96</v>
-      </c>
-      <c r="I58" t="s">
-        <v>97</v>
-      </c>
-      <c r="J58" t="s">
-        <v>98</v>
-      </c>
-      <c r="K58" t="s">
-        <v>99</v>
-      </c>
-      <c r="L58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>421</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>422</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59">
-        <v>6</v>
-      </c>
-      <c r="G59" t="s">
-        <v>423</v>
-      </c>
-      <c r="H59" t="s">
-        <v>424</v>
-      </c>
-      <c r="I59" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59" t="s">
-        <v>158</v>
-      </c>
-      <c r="K59" t="s">
-        <v>425</v>
-      </c>
-      <c r="L59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60">
-        <v>6</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" t="s">
-        <v>33</v>
-      </c>
-      <c r="J60" t="s">
-        <v>34</v>
-      </c>
-      <c r="K60" t="s">
-        <v>35</v>
-      </c>
-      <c r="L60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" t="s">
-        <v>33</v>
-      </c>
-      <c r="J61" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" t="s">
-        <v>35</v>
-      </c>
-      <c r="L61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62">
-        <v>6</v>
-      </c>
-      <c r="G62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" t="s">
-        <v>39</v>
-      </c>
-      <c r="I62" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62" t="s">
-        <v>42</v>
-      </c>
-      <c r="L62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" t="s">
-        <v>351</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>352</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
-      <c r="G63" t="s">
-        <v>353</v>
-      </c>
-      <c r="H63" t="s">
-        <v>354</v>
-      </c>
-      <c r="I63" t="s">
-        <v>355</v>
-      </c>
-      <c r="J63" t="s">
-        <v>356</v>
-      </c>
-      <c r="K63" t="s">
-        <v>357</v>
-      </c>
-      <c r="L63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64">
-        <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" t="s">
-        <v>34</v>
-      </c>
-      <c r="K64" t="s">
-        <v>35</v>
-      </c>
-      <c r="L64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" t="s">
-        <v>345</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>346</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>347</v>
-      </c>
-      <c r="H65" t="s">
-        <v>348</v>
-      </c>
-      <c r="I65" t="s">
-        <v>75</v>
-      </c>
-      <c r="J65" t="s">
-        <v>349</v>
-      </c>
-      <c r="K65" t="s">
-        <v>350</v>
-      </c>
-      <c r="L65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>185</v>
-      </c>
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>73</v>
-      </c>
-      <c r="H66" t="s">
-        <v>74</v>
-      </c>
-      <c r="I66" t="s">
-        <v>75</v>
-      </c>
-      <c r="J66" t="s">
-        <v>76</v>
-      </c>
-      <c r="K66" t="s">
-        <v>77</v>
-      </c>
-      <c r="L66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>268</v>
-      </c>
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
-      <c r="G67" t="s">
-        <v>116</v>
-      </c>
-      <c r="H67" t="s">
-        <v>117</v>
-      </c>
-      <c r="I67" t="s">
-        <v>118</v>
-      </c>
-      <c r="J67" t="s">
-        <v>119</v>
-      </c>
-      <c r="K67" t="s">
-        <v>120</v>
-      </c>
-      <c r="L67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" t="s">
-        <v>33</v>
-      </c>
-      <c r="J68" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>358</v>
-      </c>
-      <c r="B69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69">
-        <v>6</v>
-      </c>
-      <c r="G69" t="s">
-        <v>499</v>
-      </c>
-      <c r="H69" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69" t="s">
-        <v>42</v>
-      </c>
-      <c r="L69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>377</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70">
-        <v>6</v>
-      </c>
-      <c r="G70" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70" t="s">
-        <v>628</v>
-      </c>
-      <c r="I70" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" t="s">
-        <v>629</v>
-      </c>
-      <c r="K70" t="s">
-        <v>77</v>
-      </c>
-      <c r="L70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>377</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71">
-        <v>6</v>
-      </c>
-      <c r="G71" t="s">
-        <v>619</v>
-      </c>
-      <c r="H71" t="s">
-        <v>96</v>
-      </c>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-      <c r="J71" t="s">
-        <v>630</v>
-      </c>
-      <c r="K71" t="s">
-        <v>99</v>
-      </c>
-      <c r="L71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>351</v>
-      </c>
-      <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72">
-        <v>6</v>
-      </c>
-      <c r="G72" t="s">
-        <v>499</v>
-      </c>
-      <c r="H72" t="s">
-        <v>39</v>
-      </c>
-      <c r="I72" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" t="s">
-        <v>41</v>
-      </c>
-      <c r="K72" t="s">
-        <v>42</v>
-      </c>
-      <c r="L72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>345</v>
-      </c>
-      <c r="B73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73">
-        <v>6</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" t="s">
-        <v>33</v>
-      </c>
-      <c r="J73" t="s">
-        <v>34</v>
-      </c>
-      <c r="K73" t="s">
-        <v>35</v>
-      </c>
-      <c r="L73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>433</v>
-      </c>
-      <c r="B74" t="s">
-        <v>358</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>359</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>360</v>
-      </c>
-      <c r="H74" t="s">
-        <v>361</v>
-      </c>
-      <c r="I74" t="s">
-        <v>118</v>
-      </c>
-      <c r="J74" t="s">
-        <v>362</v>
-      </c>
-      <c r="K74" t="s">
-        <v>363</v>
-      </c>
-      <c r="L74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>393</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75">
-        <v>6</v>
-      </c>
-      <c r="G75" t="s">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s">
-        <v>83</v>
-      </c>
-      <c r="K75" t="s">
-        <v>84</v>
-      </c>
-      <c r="L75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>434</v>
-      </c>
-      <c r="B76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76">
-        <v>6</v>
-      </c>
-      <c r="G76" t="s">
-        <v>619</v>
-      </c>
-      <c r="H76" t="s">
-        <v>96</v>
-      </c>
-      <c r="I76" t="s">
-        <v>97</v>
-      </c>
-      <c r="J76" t="s">
-        <v>630</v>
-      </c>
-      <c r="K76" t="s">
-        <v>99</v>
-      </c>
-      <c r="L76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>448</v>
-      </c>
-      <c r="B77" t="s">
-        <v>616</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77">
-        <v>6</v>
-      </c>
-      <c r="G77" t="s">
-        <v>620</v>
-      </c>
-      <c r="H77" t="s">
-        <v>631</v>
-      </c>
-      <c r="I77" t="s">
-        <v>632</v>
-      </c>
-      <c r="J77" t="s">
-        <v>112</v>
-      </c>
-      <c r="K77" t="s">
-        <v>577</v>
-      </c>
-      <c r="L77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>460</v>
-      </c>
-      <c r="B78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78">
-        <v>6</v>
-      </c>
-      <c r="G78" t="s">
-        <v>73</v>
-      </c>
-      <c r="H78" t="s">
-        <v>628</v>
-      </c>
-      <c r="I78" t="s">
-        <v>75</v>
-      </c>
-      <c r="J78" t="s">
-        <v>629</v>
-      </c>
-      <c r="K78" t="s">
-        <v>77</v>
-      </c>
-      <c r="L78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>460</v>
-      </c>
-      <c r="B79" t="s">
-        <v>371</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>372</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79">
-        <v>6</v>
-      </c>
-      <c r="G79" t="s">
-        <v>373</v>
-      </c>
-      <c r="H79" t="s">
-        <v>374</v>
-      </c>
-      <c r="I79" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" t="s">
-        <v>375</v>
-      </c>
-      <c r="K79" t="s">
-        <v>376</v>
-      </c>
-      <c r="L79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>387</v>
-      </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>65</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80">
-        <v>6</v>
-      </c>
-      <c r="G80" t="s">
-        <v>621</v>
-      </c>
-      <c r="H80" t="s">
-        <v>633</v>
-      </c>
-      <c r="I80" t="s">
-        <v>68</v>
-      </c>
-      <c r="J80" t="s">
-        <v>69</v>
-      </c>
-      <c r="K80" t="s">
-        <v>70</v>
-      </c>
-      <c r="L80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>345</v>
-      </c>
-      <c r="B81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
-        <v>621</v>
-      </c>
-      <c r="H81" t="s">
-        <v>633</v>
-      </c>
-      <c r="I81" t="s">
-        <v>68</v>
-      </c>
-      <c r="J81" t="s">
-        <v>69</v>
-      </c>
-      <c r="K81" t="s">
-        <v>70</v>
-      </c>
-      <c r="L81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>399</v>
-      </c>
-      <c r="B82" t="s">
-        <v>345</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>346</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82">
-        <v>6</v>
-      </c>
-      <c r="G82" t="s">
-        <v>347</v>
-      </c>
-      <c r="H82" t="s">
-        <v>348</v>
-      </c>
-      <c r="I82" t="s">
-        <v>75</v>
-      </c>
-      <c r="J82" t="s">
-        <v>349</v>
-      </c>
-      <c r="K82" t="s">
-        <v>350</v>
-      </c>
-      <c r="L82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>440</v>
-      </c>
-      <c r="B83" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83">
-        <v>6</v>
-      </c>
-      <c r="G83" t="s">
-        <v>73</v>
-      </c>
-      <c r="H83" t="s">
-        <v>628</v>
-      </c>
-      <c r="I83" t="s">
-        <v>75</v>
-      </c>
-      <c r="J83" t="s">
-        <v>629</v>
-      </c>
-      <c r="K83" t="s">
-        <v>77</v>
-      </c>
-      <c r="L83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>440</v>
-      </c>
-      <c r="B84" t="s">
-        <v>371</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>372</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84">
-        <v>6</v>
-      </c>
-      <c r="G84" t="s">
-        <v>373</v>
-      </c>
-      <c r="H84" t="s">
-        <v>374</v>
-      </c>
-      <c r="I84" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" t="s">
-        <v>375</v>
-      </c>
-      <c r="K84" t="s">
-        <v>376</v>
-      </c>
-      <c r="L84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>440</v>
-      </c>
-      <c r="B85" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>211</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85">
-        <v>6</v>
-      </c>
-      <c r="G85" t="s">
-        <v>622</v>
-      </c>
-      <c r="H85" t="s">
-        <v>213</v>
-      </c>
-      <c r="I85" t="s">
-        <v>214</v>
-      </c>
-      <c r="J85" t="s">
-        <v>215</v>
-      </c>
-      <c r="K85" t="s">
-        <v>634</v>
-      </c>
-      <c r="L85" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>460</v>
-      </c>
-      <c r="B86" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>211</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86">
-        <v>6</v>
-      </c>
-      <c r="G86" t="s">
-        <v>622</v>
-      </c>
-      <c r="H86" t="s">
-        <v>213</v>
-      </c>
-      <c r="I86" t="s">
-        <v>214</v>
-      </c>
-      <c r="J86" t="s">
-        <v>215</v>
-      </c>
-      <c r="K86" t="s">
-        <v>634</v>
-      </c>
-      <c r="L86" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>441</v>
-      </c>
-      <c r="B87" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87">
-        <v>6</v>
-      </c>
-      <c r="G87" t="s">
-        <v>623</v>
-      </c>
-      <c r="H87" t="s">
-        <v>130</v>
-      </c>
-      <c r="I87" t="s">
-        <v>131</v>
-      </c>
-      <c r="J87" t="s">
-        <v>132</v>
-      </c>
-      <c r="K87" t="s">
-        <v>133</v>
-      </c>
-      <c r="L87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>441</v>
-      </c>
-      <c r="B88" t="s">
-        <v>440</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>475</v>
-      </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88">
-        <v>6</v>
-      </c>
-      <c r="G88" t="s">
-        <v>546</v>
-      </c>
-      <c r="H88" t="s">
-        <v>547</v>
-      </c>
-      <c r="I88" t="s">
-        <v>321</v>
-      </c>
-      <c r="J88" t="s">
-        <v>548</v>
-      </c>
-      <c r="K88" t="s">
-        <v>549</v>
-      </c>
-      <c r="L88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>387</v>
-      </c>
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89">
-        <v>6</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" t="s">
-        <v>32</v>
-      </c>
-      <c r="I89" t="s">
-        <v>33</v>
-      </c>
-      <c r="J89" t="s">
-        <v>34</v>
-      </c>
-      <c r="K89" t="s">
-        <v>35</v>
-      </c>
-      <c r="L89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>431</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90">
-        <v>6</v>
-      </c>
-      <c r="G90" t="s">
-        <v>619</v>
-      </c>
-      <c r="H90" t="s">
-        <v>96</v>
-      </c>
-      <c r="I90" t="s">
-        <v>97</v>
-      </c>
-      <c r="J90" t="s">
-        <v>630</v>
-      </c>
-      <c r="K90" t="s">
-        <v>99</v>
-      </c>
-      <c r="L90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>436</v>
-      </c>
-      <c r="B91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>30</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91">
-        <v>6</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" t="s">
-        <v>32</v>
-      </c>
-      <c r="I91" t="s">
-        <v>33</v>
-      </c>
-      <c r="J91" t="s">
-        <v>34</v>
-      </c>
-      <c r="K91" t="s">
-        <v>35</v>
-      </c>
-      <c r="L91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>436</v>
-      </c>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>65</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92">
-        <v>6</v>
-      </c>
-      <c r="G92" t="s">
-        <v>621</v>
-      </c>
-      <c r="H92" t="s">
-        <v>633</v>
-      </c>
-      <c r="I92" t="s">
-        <v>68</v>
-      </c>
-      <c r="J92" t="s">
-        <v>69</v>
-      </c>
-      <c r="K92" t="s">
-        <v>70</v>
-      </c>
-      <c r="L92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>459</v>
-      </c>
-      <c r="B93" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93">
-        <v>6</v>
-      </c>
-      <c r="G93" t="s">
-        <v>622</v>
-      </c>
-      <c r="H93" t="s">
-        <v>213</v>
-      </c>
-      <c r="I93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J93" t="s">
-        <v>215</v>
-      </c>
-      <c r="K93" t="s">
-        <v>634</v>
-      </c>
-      <c r="L93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>442</v>
-      </c>
-      <c r="B94" t="s">
-        <v>383</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>384</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94">
-        <v>6</v>
-      </c>
-      <c r="G94" t="s">
-        <v>385</v>
-      </c>
-      <c r="H94" t="s">
-        <v>386</v>
-      </c>
-      <c r="I94" t="s">
-        <v>26</v>
-      </c>
-      <c r="J94" t="s">
-        <v>158</v>
-      </c>
-      <c r="K94" t="s">
-        <v>159</v>
-      </c>
-      <c r="L94" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>435</v>
-      </c>
-      <c r="B95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95">
-        <v>6</v>
-      </c>
-      <c r="G95" t="s">
-        <v>624</v>
-      </c>
-      <c r="H95" t="s">
-        <v>635</v>
-      </c>
-      <c r="I95" t="s">
-        <v>61</v>
-      </c>
-      <c r="J95" t="s">
-        <v>636</v>
-      </c>
-      <c r="K95" t="s">
-        <v>63</v>
-      </c>
-      <c r="L95" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>457</v>
-      </c>
-      <c r="B96" t="s">
-        <v>358</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>359</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96">
-        <v>6</v>
-      </c>
-      <c r="G96" t="s">
-        <v>360</v>
-      </c>
-      <c r="H96" t="s">
-        <v>361</v>
-      </c>
-      <c r="I96" t="s">
-        <v>118</v>
-      </c>
-      <c r="J96" t="s">
-        <v>362</v>
-      </c>
-      <c r="K96" t="s">
-        <v>363</v>
-      </c>
-      <c r="L96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>457</v>
-      </c>
-      <c r="B97" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97">
-        <v>6</v>
-      </c>
-      <c r="G97" t="s">
-        <v>206</v>
-      </c>
-      <c r="H97" t="s">
-        <v>207</v>
-      </c>
-      <c r="I97" t="s">
-        <v>97</v>
-      </c>
-      <c r="J97" t="s">
-        <v>208</v>
-      </c>
-      <c r="K97" t="s">
-        <v>209</v>
-      </c>
-      <c r="L97" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>431</v>
-      </c>
-      <c r="B98" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98">
-        <v>6</v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s">
-        <v>628</v>
-      </c>
-      <c r="I98" t="s">
-        <v>75</v>
-      </c>
-      <c r="J98" t="s">
-        <v>629</v>
-      </c>
-      <c r="K98" t="s">
-        <v>77</v>
-      </c>
-      <c r="L98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>438</v>
-      </c>
-      <c r="B99" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99">
-        <v>6</v>
-      </c>
-      <c r="G99" t="s">
-        <v>625</v>
-      </c>
-      <c r="H99" t="s">
-        <v>637</v>
-      </c>
-      <c r="I99" t="s">
-        <v>145</v>
-      </c>
-      <c r="J99" t="s">
-        <v>638</v>
-      </c>
-      <c r="K99" t="s">
-        <v>639</v>
-      </c>
-      <c r="L99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>371</v>
-      </c>
-      <c r="B100" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>30</v>
-      </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100">
-        <v>6</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" t="s">
-        <v>32</v>
-      </c>
-      <c r="I100" t="s">
-        <v>33</v>
-      </c>
-      <c r="J100" t="s">
-        <v>34</v>
-      </c>
-      <c r="K100" t="s">
-        <v>35</v>
-      </c>
-      <c r="L100" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>371</v>
-      </c>
-      <c r="B101" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101">
-        <v>6</v>
-      </c>
-      <c r="G101" t="s">
-        <v>499</v>
-      </c>
-      <c r="H101" t="s">
-        <v>39</v>
-      </c>
-      <c r="I101" t="s">
-        <v>40</v>
-      </c>
-      <c r="J101" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101" t="s">
-        <v>42</v>
-      </c>
-      <c r="L101" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>442</v>
-      </c>
-      <c r="B102" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102">
-        <v>6</v>
-      </c>
-      <c r="G102" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" t="s">
-        <v>103</v>
-      </c>
-      <c r="I102" t="s">
-        <v>104</v>
-      </c>
-      <c r="J102" t="s">
-        <v>105</v>
-      </c>
-      <c r="K102" t="s">
-        <v>106</v>
-      </c>
-      <c r="L102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>442</v>
-      </c>
-      <c r="B103" t="s">
-        <v>431</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>466</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103">
-        <v>6</v>
-      </c>
-      <c r="G103" t="s">
-        <v>509</v>
-      </c>
-      <c r="H103" t="s">
-        <v>510</v>
-      </c>
-      <c r="I103" t="s">
-        <v>511</v>
-      </c>
-      <c r="J103" t="s">
-        <v>512</v>
-      </c>
-      <c r="K103" t="s">
-        <v>513</v>
-      </c>
-      <c r="L103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>399</v>
-      </c>
-      <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104">
-        <v>6</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
-      <c r="H104" t="s">
-        <v>32</v>
-      </c>
-      <c r="I104" t="s">
-        <v>33</v>
-      </c>
-      <c r="J104" t="s">
-        <v>34</v>
-      </c>
-      <c r="K104" t="s">
-        <v>35</v>
-      </c>
-      <c r="L104" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>399</v>
-      </c>
-      <c r="B105" t="s">
-        <v>86</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>87</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105">
-        <v>6</v>
-      </c>
-      <c r="G105" t="s">
-        <v>626</v>
-      </c>
-      <c r="H105" t="s">
-        <v>640</v>
-      </c>
-      <c r="I105" t="s">
-        <v>90</v>
-      </c>
-      <c r="J105" t="s">
-        <v>91</v>
-      </c>
-      <c r="K105" t="s">
-        <v>92</v>
-      </c>
-      <c r="L105" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>439</v>
-      </c>
-      <c r="B106" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>79</v>
-      </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106">
-        <v>6</v>
-      </c>
-      <c r="G106" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I106" t="s">
-        <v>82</v>
-      </c>
-      <c r="J106" t="s">
-        <v>83</v>
-      </c>
-      <c r="K106" t="s">
-        <v>84</v>
-      </c>
-      <c r="L106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>460</v>
-      </c>
-      <c r="B107" t="s">
-        <v>440</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>475</v>
-      </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107">
-        <v>6</v>
-      </c>
-      <c r="G107" t="s">
-        <v>546</v>
-      </c>
-      <c r="H107" t="s">
-        <v>547</v>
-      </c>
-      <c r="I107" t="s">
-        <v>321</v>
-      </c>
-      <c r="J107" t="s">
-        <v>548</v>
-      </c>
-      <c r="K107" t="s">
-        <v>549</v>
-      </c>
-      <c r="L107" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>462</v>
-      </c>
-      <c r="B108" t="s">
-        <v>617</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>618</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108">
-        <v>6</v>
-      </c>
-      <c r="G108" t="s">
-        <v>627</v>
-      </c>
-      <c r="H108" t="s">
-        <v>641</v>
-      </c>
-      <c r="I108" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" t="s">
-        <v>26</v>
-      </c>
-      <c r="K108" t="s">
-        <v>642</v>
-      </c>
-      <c r="L108" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>433</v>
-      </c>
-      <c r="B109" t="s">
-        <v>204</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109">
-        <v>6</v>
-      </c>
-      <c r="G109" t="s">
-        <v>206</v>
-      </c>
-      <c r="H109" t="s">
-        <v>207</v>
-      </c>
-      <c r="I109" t="s">
-        <v>97</v>
-      </c>
-      <c r="J109" t="s">
-        <v>208</v>
-      </c>
-      <c r="K109" t="s">
-        <v>209</v>
-      </c>
-      <c r="L109" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>446</v>
-      </c>
-      <c r="B110" t="s">
-        <v>445</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>480</v>
-      </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110">
-        <v>6</v>
-      </c>
-      <c r="G110" t="s">
-        <v>562</v>
-      </c>
-      <c r="H110" t="s">
-        <v>563</v>
-      </c>
-      <c r="I110" t="s">
-        <v>564</v>
-      </c>
-      <c r="J110" t="s">
-        <v>565</v>
-      </c>
-      <c r="K110" t="s">
-        <v>566</v>
-      </c>
-      <c r="L110" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>232</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111">
-        <v>6</v>
-      </c>
-      <c r="G111" t="s">
-        <v>233</v>
-      </c>
-      <c r="H111" t="s">
-        <v>234</v>
-      </c>
-      <c r="I111" t="s">
-        <v>26</v>
-      </c>
-      <c r="J111" t="s">
-        <v>235</v>
-      </c>
-      <c r="K111" t="s">
-        <v>236</v>
-      </c>
-      <c r="L111" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>441</v>
-      </c>
-      <c r="B112" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
-        <v>211</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112">
-        <v>6</v>
-      </c>
-      <c r="G112" t="s">
-        <v>622</v>
-      </c>
-      <c r="H112" t="s">
-        <v>213</v>
-      </c>
-      <c r="I112" t="s">
-        <v>214</v>
-      </c>
-      <c r="J112" t="s">
-        <v>215</v>
-      </c>
-      <c r="K112" t="s">
-        <v>634</v>
-      </c>
-      <c r="L112" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>432</v>
-      </c>
-      <c r="B113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113">
-        <v>6</v>
-      </c>
-      <c r="G113" t="s">
-        <v>621</v>
-      </c>
-      <c r="H113" t="s">
-        <v>633</v>
-      </c>
-      <c r="I113" t="s">
-        <v>68</v>
-      </c>
-      <c r="J113" t="s">
-        <v>69</v>
-      </c>
-      <c r="K113" t="s">
-        <v>70</v>
-      </c>
-      <c r="L113" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>432</v>
-      </c>
-      <c r="B114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114">
-        <v>6</v>
-      </c>
-      <c r="G114" t="s">
-        <v>73</v>
-      </c>
-      <c r="H114" t="s">
-        <v>628</v>
-      </c>
-      <c r="I114" t="s">
-        <v>75</v>
-      </c>
-      <c r="J114" t="s">
-        <v>629</v>
-      </c>
-      <c r="K114" t="s">
-        <v>77</v>
-      </c>
-      <c r="L114" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>371</v>
-      </c>
-      <c r="B115" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115">
-        <v>6</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" t="s">
-        <v>643</v>
-      </c>
-      <c r="I115" t="s">
-        <v>26</v>
-      </c>
-      <c r="J115" t="s">
-        <v>27</v>
-      </c>
-      <c r="K115" t="s">
-        <v>644</v>
-      </c>
-      <c r="L115" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>